--- a/spreadsheet/aks_checklist.ja.xlsx
+++ b/spreadsheet/aks_checklist.ja.xlsx
@@ -1095,7 +1095,7 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>BC州とDR</t>
+          <t>BC および DR</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
@@ -1122,7 +1122,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1141,7 +1141,7 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>BC州とDR</t>
+          <t>BC および DR</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
@@ -1187,7 +1187,7 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>BC州とDR</t>
+          <t>BC および DR</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager または Azure Front Door をリージョン フェールオーバーのグローバル ロード バランサーとして使用する</t>
+          <t>Azure トラフィック マネージャーまたは Azure Front Door をリージョン フェールオーバーのグローバル ロード バランサーとして使用する</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
@@ -1233,7 +1233,7 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>BC州とDR</t>
+          <t>BC および DR</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョンでサポートされている場合は、アベイラビリティーゾーンを使用する</t>
+          <t>Azure リージョンでサポートされている場合は、可用性ゾーンを使用する</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
@@ -1279,7 +1279,7 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>BC州とDR</t>
+          <t>BC および DR</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
@@ -1314,7 +1314,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>71d41e36-10ccの-457b-9a4b-1410d4395898</t>
+          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1325,7 +1325,7 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>BC州とDR</t>
+          <t>BC および DR</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>ポッドと展開定義での中断予算の使用</t>
+          <t>ポッドとデプロイの定義で中断予算を使用する</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
@@ -1371,7 +1371,7 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>BC州とDR</t>
+          <t>BC および DR</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>プライベート レジストリを使用する場合は、複数の領域にイメージを格納するように領域レプリケーションを構成します。</t>
+          <t>プライベート・レジストリーを使用する場合は、複数のリージョンにイメージを保管するようにリージョン・レプリケーションを構成します。</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
@@ -1417,7 +1417,7 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>ID とアクセスの管理</t>
+          <t>アイデンティティとアクセス管理</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
@@ -1463,7 +1463,7 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>ID とアクセスの管理</t>
+          <t>アイデンティティとアクセス管理</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
@@ -1509,7 +1509,7 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>ID とアクセスの管理</t>
+          <t>アイデンティティとアクセス管理</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>管理者 kubeconfig へのアクセスを制限する (get-credentials --admin)</t>
+          <t>管理者kubeconfigへのアクセスを制限する (取得資格情報 --admin)</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1555,7 +1555,7 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>ID とアクセスの管理</t>
+          <t>アイデンティティとアクセス管理</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
@@ -1601,7 +1601,7 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>ID とアクセスの管理</t>
+          <t>アイデンティティとアクセス管理</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Kubernetes での RBAC 特権を制限するために名前空間を使用する</t>
+          <t>Kubernetes で RBAC 特権を制限するために名前空間を使用する</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1647,7 +1647,7 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>ID とアクセスの管理</t>
+          <t>アイデンティティとアクセス管理</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>ワークロードIDにPodアイデンティティを使用する(アドオンv2は本日プレビュー中)</t>
+          <t>ワークロードIDにPodアイデンティティを使用する(今日プレビュー中のアドオンv2)</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1698,12 +1698,12 @@
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>イパム</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>要件に最適な CNI ネットワーク プラグインを選択してください (Azure CNI をお勧めします)</t>
+          <t>要件に最適な CNI ネットワーク プラグインを選択してください (Azure CNI を推奨)</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
@@ -1728,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>A0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>イパム</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
@@ -1790,12 +1790,12 @@
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>イパム</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Azure CNI を使用している場合は、ポッド/ノードの最大数を確認します (既定値は 30)</t>
+          <t>Azure CNI を使用している場合は、ポッド/ノードの最大数を確認します (既定は 30)</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1836,17 +1836,17 @@
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>イパム</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>プライベート IP ロードバランサー サービスを使用する場合は、(AKS サブネットではなく) 専用サブネットを使用します。</t>
+          <t>プライベート IP ロードバランサー サービスを使用する場合は、専用サブネット (AKS サブネットではない) を使用します。</t>
         </is>
       </c>
       <c r="D24" s="22" t="inlineStr">
         <is>
-          <t>内部アプリの場合、組織は多くの場合、ファイアウォールで AKS サブネット全体を開きます。これにより、ノードへのネットワーク アクセスも開かれ、場合によってはポッド (Azure CNI を使用している場合) にもアクセスできるようになります。LoadBalancer IP が別のサブネットにある場合は、このサブネットのみをアプリ クライアントが使用できるようにする必要があります。もう 1 つの理由は、AKS サブネット内の IP アドレスが希少なリソースである場合、その IP アドレスをサービスに消費すると、クラスターの最大スケーラビリティが低下するためです。</t>
+          <t>内部アプリの場合、組織はファイアウォールで AKS サブネット全体を開くことがよくあります。これにより、ノードへのネットワーク アクセスも開かれ、場合によってはポッドへのネットワーク アクセスも開かれます (Azure CNI を使用している場合)。LoadBalancer IP が別のサブネットにある場合は、この IP のみがアプリ クライアントで使用できるようにする必要があります。もう 1 つの理由は、AKS サブネット内の IP アドレスが希少なリソースである場合、サービス用にその IP アドレスを消費すると、クラスターの最大スケーラビリティが低下するためです。</t>
         </is>
       </c>
       <c r="E24" s="22" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>イパム</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>それに応じてサービスの IP アドレス範囲のサイズを設定します (クラスターのスケーラビリティが制限されます)。</t>
+          <t>それに応じてサービス IP アドレス範囲のサイズを設定します (クラスターのスケーラビリティが制限されます)。</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>AzFW/NVA で出力トラフィックをフィルター処理する (セキュリティ要件で義務付けられている場合)</t>
+          <t>セキュリティ要件で義務付けられている場合は、AzFW/NVA で出力トラフィックをフィルタリングします。</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>パブリック API エンドポイントを使用する場合は、そのエンドポイントにアクセスできる IP アドレスを制限します。</t>
+          <t>パブリック API エンドポイントを使用している場合は、そのエンドポイントにアクセスできる IP アドレスを制限します。</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>入力コントローラーを使用して、LoadBalancer タイプのサービスで公開するのではなく、Web ベースのアプリを公開する</t>
+          <t>LoadBalancer タイプのサービスで公開するのではなく、入力コントローラーを使用して Web ベースのアプリを公開する</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>ベスト プラクティス</t>
+          <t>ベスト・プラクティス</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>プライベート エンドポイント (推奨) または仮想ネットワーク サービス エンドポイントを使用して、クラスターから PaaS サービスにアクセスする</t>
+          <t>プライベートエンドポイント (推奨) または仮想ネットワークサービスエンドポイントを使用して、クラスターから PaaS サービスにアクセスする</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>要件で義務付けられている場合は、プライベートクラスターを使用する</t>
+          <t>要件で必須の場合はプライベートクラスターを使用します。</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Kubernetesネットワークポリシーを使用してクラスタ内のセキュリティを強化する</t>
+          <t>Kubernetes ネットワーク ポリシーを使用してクラスター内のセキュリティを強化する</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>AKS 仮想ネットワークで DDoS 標準を使用する</t>
+          <t>AKS 仮想ネットワークでの DDoS 標準の使用</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
@@ -2387,12 +2387,12 @@
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>ベスト プラクティス</t>
+          <t>ベスト・プラクティス</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>AKS アプリケーション ルーティング アドオンを使用しない</t>
+          <t>AKS アプリケーション ルーティング アドオンを使用しないでください</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>ベスト プラクティス</t>
+          <t>ベスト・プラクティス</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド接続が必要な場合は、2xERまたはER + VPNを使用して可用性を向上させます</t>
+          <t>ハイブリッド接続が必要な場合は、2xER または ER+VPN を使用して可用性を向上させます。</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>高度なマイクロサービス通信管理のためのサービスメッシュの使用を検討する</t>
+          <t>高度なマイクロサービス通信管理にサービス メッシュの使用を検討する</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>CSI シークレット ストア ドライバーを使用して Azure Key Vault にシークレットを保存する</t>
+          <t>CSI シークレット ストア ドライバーを使用して Azure Key Vault にシークレットを格納する</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>ユーザー/システム・ノード・プールを使用してアプリケーションをコントロール・プレーンから分離する</t>
+          <t>ユーザー/システム・ノードプールによるコントロール・プレーンからのアプリケーションの分離</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>システムノードプールに汚れを追加して専用にする</t>
+          <t>システムノードプールにtaintを追加して専用にする</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>イメージにプライベート レジストリ (ACR など) を使用する</t>
+          <t>イメージにプライベート レジストリを使用する (ACR など)</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>画像をスキャンして脆弱性を探す</t>
+          <t>脆弱性がないか画像をスキャンする</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Azure Security Center を使用してセキュリティ体制の脆弱性を検出する</t>
+          <t>Azure セキュリティ センターを使用してセキュリティ体制の脆弱性を検出する</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>アプリの分離要件を定義する (名前空間/ノードプール/クラスター)</t>
+          <t>アプリの分離要件の定義 (名前空間/ノードプール/クラスター)</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>kubecost などの外部アプリケーションを使用して、カストを異なるユーザーに割り当てる</t>
+          <t>kubecost などの外部アプリケーションを使用して、カストを異なるユーザーに割り当てます。</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>一時的なOSディスクを使用する</t>
+          <t>一時的な OS ディスクを使用する</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>非一時ディスクの場合は、複数のポッドを実行するために高いパフォーマンスを必要とし、デフォルトのAKSログローテーションしきい値で巨大なログを生成するため、多くのポッド/ノードを実行するときは、ノードに高いIOPSとより大きなOSディスクを使用してください</t>
+          <t>非一時ディスクの場合、複数のポッドを実行するには高いパフォーマンスが必要であり、既定の AKS ログ回転しきい値で巨大なログを生成するため、多くのポッド/ノードを実行するときは、ノードに高い IOPS とより大きな OS ディスクを使用します。</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>クラスター内の状態の保持を避け、外部 (AzStorage、AzSQL、Cosmos など) にデータを格納する</t>
+          <t>クラスター内に状態を保持しないようにし、データを外部 (AzStorage、AzSQL、Cosmos など) に格納する</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>AzFiles Standard を使用している場合は、パフォーマンス上の理由から AzFiles Premium や ANF を検討してください。</t>
+          <t>AzFiles Standard を使用している場合は、パフォーマンス上の理由から AzFiles Premium および/または ANF を検討してください。</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Azure ディスクと AZ を使用する場合は、LRS ディスクのゾーン内にノード プールを VolumeBindingMode:WaitForFirstConsumer を使用して適切なゾーンにストレージをプロビジョニングするか、複数のゾーンにまたがるノード プールに ZRS ディスクを使用することを検討してください。</t>
+          <t>Azure ディスクと AZ を使用している場合は、VolumeBindingMode:WaitForFirstConsumer を使用して LRS ディスクのゾーン内にノードプールを用意して、適切なゾーンにストレージをプロビジョニングするか、複数のゾーンにまたがるノードプールに ZRS ディスクを使用することを検討してください。</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Azure Advisor でクラスターに関する推奨事項を定期的に確認する</t>
+          <t>Azure アドバイザーでクラスターに関する推奨事項を定期的に確認する</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>vscode+kubeadvisor などのインテリジェントなテキストエディタで YAML マニフェストを開発する</t>
+          <t>vscode+kubeadvisorなどのインテリジェントなテキストエディタでYAMLマニフェストを開発する</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>コンテナインサイト(またはPrometheusなどの他のツール)を使用してクラスターメトリクスを監視する</t>
+          <t>コンテナーインサイト(またはPrometheusなどの他のツール)でクラスターメトリックを監視する</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>コンテナインサイト(またはTelegraf/ElasticSearchなどの他のツール)を使用してクラスタログを保存および分析します。</t>
+          <t>クラスターログをコンテナインサイト(またはTelegraf/ElasticSearchなどの他のツール)で保存および分析します。</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>最も重要なメトリックに関するアラートを構成する (推奨事項については、「コンテナーの分析情報」を参照してください)。</t>
+          <t>最も重要なメトリックでアラートを構成する (推奨事項については、「コンテナー インサイト」を参照してください)。</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>kubernetes のバージョンを定期的に (四半期ごとなど) アップグレードする定期的なプロセスを実行するか、AKS 自動アップグレード機能を使用する</t>
+          <t>kubernetes バージョンを定期的に (四半期ごとなど) アップグレードするプロセスを定期的に用意するか、AKS 自動アップグレード機能を使用する</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>ノードイメージのアップグレードを使用していない場合に備えて、Linuxノードのアップグレードにkuredを使用する</t>
+          <t>ノードイメージアップグレードを使用していない場合に備えて、Linuxノードアップグレードにkuredを使用する</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>クラスター・ノード・イメージを定期的に (例えば毎週) アップグレードする定期的なプロセスを用意する</t>
+          <t>クラスター・ノード・イメージを定期的に (例えば毎週) アップグレードする定期的なプロセスがある</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3622,7 +3622,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションまたはクラスター構成を複数のクラスターにデプロイするための gitop を検討する</t>
+          <t>gitops を検討して、アプリケーションまたはクラスター構成を複数のクラスターにデプロイする</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>独自のガバナンスプラクティスを開発して、ノードRG(別名「infra RG」)のオペレータによって変更が実行されないようにします。</t>
+          <t>ノードRG(別名「インフラRG」)内のオペレータによって変更が実行されないように、独自のガバナンスプラクティスを開発します。</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>標準ウィンドウノード</t>
+          <t>汚染ウィンドウノード</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4081,12 +4081,12 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>ノード内のOSディスクキューの深さを監視する</t>
+          <t>ノード内の OS ディスク・キューの深さのモニター</t>
         </is>
       </c>
       <c r="D73" s="22" t="inlineStr">
         <is>
-          <t>OS ディスクの I/O は重要なリソースです。ノード内のOSがI / Oで調整されると、予期しない動作が発生し、通常はノードがNotReadyと宣言される可能性があります</t>
+          <t>OS ディスクの I/O は重要なリソースです。ノード内の OS が I/O で調整されると、予期しない動作が発生する可能性があり、通常はノードが NotReady と宣言されることになります。</t>
         </is>
       </c>
       <c r="E73" s="22" t="inlineStr">
@@ -4223,12 +4223,12 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>マスター ログ (別名 API ログ) を Azure Monitor または任意のログ管理ソリューションに送信する</t>
+          <t>マスター ログ (別名 API ログ) を Azure Monitor またはお好みのログ管理ソリューションに送信する</t>
         </is>
       </c>
       <c r="D76" s="22" t="inlineStr">
         <is>
-          <t>クラスタレベルでの診断設定を使用</t>
+          <t>クラスタレベルの診断設定経由</t>
         </is>
       </c>
       <c r="E76" s="22" t="inlineStr">
@@ -4273,7 +4273,7 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>クラスター オートスケーラーを使用する</t>
+          <t>クラスター オートスケーラーの使用</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて水平ポッドオートケーラを使用する</t>
+          <t>必要に応じて水平ポッドオートスケーラを使用する</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="D79" s="22" t="inlineStr">
         <is>
-          <t>ノードが大きいほど、パフォーマンスが向上し、一時ディスクやネットワークの高速化などの機能が得られますが、爆発半径が増加し、スケーリングの粒度が低下します。</t>
+          <t>ノードが大きいほど、パフォーマンスが向上し、一時的なディスクや高速ネットワークなどの機能がもたらされますが、爆発半径が大きくなり、スケーリングの粒度が低下します。</t>
         </is>
       </c>
       <c r="E79" s="22" t="inlineStr">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>ポッドの仕様で要求と制限を構成する</t>
+          <t>ポッド仕様で要求と制限を構成する</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>カナリアまたはブルー/グリーン展開を使用する</t>
+          <t>カナリアまたは青/緑の展開を使用する</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>イベント駆動型ワークロードを実行する場合にKEDAを使用する</t>
+          <t>イベント駆動型ワークロードを実行する場合は、KEDA を使用します。</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4670,7 +4670,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
+          <t>A280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4725,1750 +4725,5094 @@
       <c r="P86" s="26" t="n"/>
     </row>
     <row r="87" ht="16.5" customHeight="1" s="13">
-      <c r="A87" s="22" t="n"/>
-      <c r="B87" s="22" t="n"/>
-      <c r="C87" s="22" t="n"/>
+      <c r="A87" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B87" s="22" t="inlineStr">
+        <is>
+          <t>PaaS</t>
+        </is>
+      </c>
+      <c r="C87" s="22" t="inlineStr">
+        <is>
+          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
+        </is>
+      </c>
       <c r="D87" s="22" t="n"/>
-      <c r="E87" s="22" t="n"/>
+      <c r="E87" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G87" s="22" t="n"/>
-      <c r="H87" s="16" t="n"/>
-      <c r="I87" s="16" t="n"/>
+      <c r="H87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
-      <c r="L87" s="26" t="n"/>
+      <c r="L87" s="26" t="inlineStr">
+        <is>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+        </is>
+      </c>
       <c r="M87" s="26" t="n"/>
       <c r="N87" s="26" t="n"/>
       <c r="O87" s="26" t="n"/>
       <c r="P87" s="26" t="n"/>
     </row>
     <row r="88" ht="16.5" customHeight="1" s="13">
-      <c r="A88" s="22" t="n"/>
-      <c r="B88" s="22" t="n"/>
-      <c r="C88" s="22" t="n"/>
+      <c r="A88" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B88" s="22" t="inlineStr">
+        <is>
+          <t>PaaS</t>
+        </is>
+      </c>
+      <c r="C88" s="22" t="inlineStr">
+        <is>
+          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
+        </is>
+      </c>
       <c r="D88" s="22" t="n"/>
-      <c r="E88" s="22" t="n"/>
+      <c r="E88" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G88" s="22" t="n"/>
-      <c r="H88" s="16" t="n"/>
-      <c r="I88" s="16" t="n"/>
+      <c r="H88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
-      <c r="L88" s="26" t="n"/>
+      <c r="L88" s="26" t="inlineStr">
+        <is>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+        </is>
+      </c>
       <c r="M88" s="26" t="n"/>
       <c r="N88" s="26" t="n"/>
       <c r="O88" s="26" t="n"/>
       <c r="P88" s="26" t="n"/>
     </row>
     <row r="89" ht="16.5" customHeight="1" s="13">
-      <c r="A89" s="22" t="n"/>
-      <c r="B89" s="22" t="n"/>
-      <c r="C89" s="22" t="n"/>
+      <c r="A89" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B89" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C89" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+        </is>
+      </c>
       <c r="D89" s="22" t="n"/>
-      <c r="E89" s="22" t="n"/>
+      <c r="E89" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G89" s="22" t="n"/>
-      <c r="H89" s="16" t="n"/>
-      <c r="I89" s="16" t="n"/>
+      <c r="H89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
-      <c r="L89" s="26" t="n"/>
+      <c r="L89" s="26" t="inlineStr">
+        <is>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+        </is>
+      </c>
       <c r="M89" s="26" t="n"/>
       <c r="N89" s="26" t="n"/>
       <c r="O89" s="26" t="n"/>
       <c r="P89" s="26" t="n"/>
     </row>
     <row r="90" ht="16.5" customHeight="1" s="13">
-      <c r="A90" s="22" t="n"/>
-      <c r="B90" s="22" t="n"/>
-      <c r="C90" s="22" t="n"/>
+      <c r="A90" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B90" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C90" s="22" t="inlineStr">
+        <is>
+          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
+        </is>
+      </c>
       <c r="D90" s="22" t="n"/>
-      <c r="E90" s="22" t="n"/>
+      <c r="E90" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G90" s="22" t="n"/>
-      <c r="H90" s="16" t="n"/>
-      <c r="I90" s="16" t="n"/>
+      <c r="H90" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I90" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
-      <c r="L90" s="26" t="n"/>
+      <c r="L90" s="26" t="inlineStr">
+        <is>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+        </is>
+      </c>
       <c r="M90" s="26" t="n"/>
       <c r="N90" s="26" t="n"/>
       <c r="O90" s="26" t="n"/>
       <c r="P90" s="26" t="n"/>
     </row>
     <row r="91" ht="16.5" customHeight="1" s="13">
-      <c r="A91" s="22" t="n"/>
-      <c r="B91" s="22" t="n"/>
-      <c r="C91" s="22" t="n"/>
+      <c r="A91" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B91" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C91" s="22" t="inlineStr">
+        <is>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+        </is>
+      </c>
       <c r="D91" s="22" t="n"/>
-      <c r="E91" s="22" t="n"/>
+      <c r="E91" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G91" s="22" t="n"/>
-      <c r="H91" s="16" t="n"/>
-      <c r="I91" s="16" t="n"/>
+      <c r="H91" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I91" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
-      <c r="L91" s="26" t="n"/>
+      <c r="L91" s="26" t="inlineStr">
+        <is>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+        </is>
+      </c>
       <c r="M91" s="26" t="n"/>
       <c r="N91" s="26" t="n"/>
       <c r="O91" s="26" t="n"/>
       <c r="P91" s="26" t="n"/>
     </row>
     <row r="92" ht="16.5" customHeight="1" s="13">
-      <c r="A92" s="22" t="n"/>
-      <c r="B92" s="22" t="n"/>
-      <c r="C92" s="22" t="n"/>
+      <c r="A92" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B92" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C92" s="22" t="inlineStr">
+        <is>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+        </is>
+      </c>
       <c r="D92" s="22" t="n"/>
-      <c r="E92" s="22" t="n"/>
+      <c r="E92" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G92" s="22" t="n"/>
-      <c r="H92" s="16" t="n"/>
-      <c r="I92" s="16" t="n"/>
+      <c r="H92" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I92" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
-      <c r="L92" s="26" t="n"/>
+      <c r="L92" s="26" t="inlineStr">
+        <is>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+        </is>
+      </c>
       <c r="M92" s="26" t="n"/>
       <c r="N92" s="26" t="n"/>
       <c r="O92" s="26" t="n"/>
       <c r="P92" s="26" t="n"/>
     </row>
     <row r="93" ht="16.5" customHeight="1" s="13">
-      <c r="A93" s="22" t="n"/>
-      <c r="B93" s="22" t="n"/>
-      <c r="C93" s="22" t="n"/>
+      <c r="A93" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B93" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C93" s="22" t="inlineStr">
+        <is>
+          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+        </is>
+      </c>
       <c r="D93" s="22" t="n"/>
-      <c r="E93" s="22" t="n"/>
+      <c r="E93" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G93" s="22" t="n"/>
-      <c r="H93" s="16" t="n"/>
-      <c r="I93" s="16" t="n"/>
+      <c r="H93" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I93" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J93" s="23" t="n"/>
       <c r="K93" s="23" t="n"/>
-      <c r="L93" s="26" t="n"/>
+      <c r="L93" s="26" t="inlineStr">
+        <is>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+        </is>
+      </c>
       <c r="M93" s="26" t="n"/>
       <c r="N93" s="26" t="n"/>
       <c r="O93" s="26" t="n"/>
       <c r="P93" s="26" t="n"/>
     </row>
     <row r="94" ht="16.5" customHeight="1" s="13">
-      <c r="A94" s="22" t="n"/>
-      <c r="B94" s="22" t="n"/>
-      <c r="C94" s="22" t="n"/>
+      <c r="A94" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B94" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C94" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+        </is>
+      </c>
       <c r="D94" s="22" t="n"/>
-      <c r="E94" s="22" t="n"/>
+      <c r="E94" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G94" s="22" t="n"/>
-      <c r="H94" s="16" t="n"/>
-      <c r="I94" s="16" t="n"/>
+      <c r="H94" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+        </is>
+      </c>
+      <c r="I94" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J94" s="23" t="n"/>
       <c r="K94" s="23" t="n"/>
-      <c r="L94" s="26" t="n"/>
+      <c r="L94" s="26" t="inlineStr">
+        <is>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+        </is>
+      </c>
       <c r="M94" s="26" t="n"/>
       <c r="N94" s="26" t="n"/>
       <c r="O94" s="26" t="n"/>
       <c r="P94" s="26" t="n"/>
     </row>
     <row r="95" ht="16.5" customHeight="1" s="13">
-      <c r="A95" s="22" t="n"/>
-      <c r="B95" s="22" t="n"/>
-      <c r="C95" s="22" t="n"/>
+      <c r="A95" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B95" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C95" s="22" t="inlineStr">
+        <is>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D95" s="22" t="n"/>
-      <c r="E95" s="22" t="n"/>
+      <c r="E95" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G95" s="22" t="n"/>
-      <c r="H95" s="16" t="n"/>
-      <c r="I95" s="16" t="n"/>
+      <c r="H95" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I95" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
-      <c r="L95" s="26" t="n"/>
+      <c r="L95" s="26" t="inlineStr">
+        <is>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+        </is>
+      </c>
       <c r="M95" s="26" t="n"/>
       <c r="N95" s="26" t="n"/>
       <c r="O95" s="26" t="n"/>
       <c r="P95" s="26" t="n"/>
     </row>
     <row r="96" ht="16.5" customHeight="1" s="13">
-      <c r="A96" s="22" t="n"/>
-      <c r="B96" s="22" t="n"/>
-      <c r="C96" s="22" t="n"/>
+      <c r="A96" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B96" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C96" s="22" t="inlineStr">
+        <is>
+          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+        </is>
+      </c>
       <c r="D96" s="22" t="n"/>
-      <c r="E96" s="22" t="n"/>
+      <c r="E96" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G96" s="22" t="n"/>
-      <c r="H96" s="16" t="n"/>
-      <c r="I96" s="16" t="n"/>
+      <c r="H96" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I96" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
-      <c r="L96" s="26" t="n"/>
+      <c r="L96" s="26" t="inlineStr">
+        <is>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+        </is>
+      </c>
       <c r="M96" s="26" t="n"/>
       <c r="N96" s="26" t="n"/>
       <c r="O96" s="26" t="n"/>
       <c r="P96" s="26" t="n"/>
     </row>
     <row r="97" ht="16.5" customHeight="1" s="13">
-      <c r="A97" s="22" t="n"/>
-      <c r="B97" s="22" t="n"/>
-      <c r="C97" s="22" t="n"/>
+      <c r="A97" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B97" s="22" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="C97" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
+        </is>
+      </c>
       <c r="D97" s="22" t="n"/>
-      <c r="E97" s="22" t="n"/>
+      <c r="E97" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G97" s="22" t="n"/>
-      <c r="H97" s="16" t="n"/>
-      <c r="I97" s="16" t="n"/>
+      <c r="H97" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I97" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
-      <c r="L97" s="26" t="n"/>
+      <c r="L97" s="26" t="inlineStr">
+        <is>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+        </is>
+      </c>
       <c r="M97" s="26" t="n"/>
       <c r="N97" s="26" t="n"/>
       <c r="O97" s="26" t="n"/>
       <c r="P97" s="26" t="n"/>
     </row>
     <row r="98" ht="16.5" customHeight="1" s="13">
-      <c r="A98" s="22" t="n"/>
-      <c r="B98" s="22" t="n"/>
-      <c r="C98" s="22" t="n"/>
+      <c r="A98" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B98" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C98" s="22" t="inlineStr">
+        <is>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+        </is>
+      </c>
       <c r="D98" s="22" t="n"/>
-      <c r="E98" s="22" t="n"/>
+      <c r="E98" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G98" s="22" t="n"/>
-      <c r="H98" s="16" t="n"/>
-      <c r="I98" s="16" t="n"/>
+      <c r="H98" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I98" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
-      <c r="L98" s="26" t="n"/>
+      <c r="L98" s="26" t="inlineStr">
+        <is>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+        </is>
+      </c>
       <c r="M98" s="26" t="n"/>
       <c r="N98" s="26" t="n"/>
       <c r="O98" s="26" t="n"/>
       <c r="P98" s="26" t="n"/>
     </row>
     <row r="99" ht="16.5" customHeight="1" s="13">
-      <c r="A99" s="22" t="n"/>
-      <c r="B99" s="22" t="n"/>
-      <c r="C99" s="22" t="n"/>
+      <c r="A99" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B99" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C99" s="22" t="inlineStr">
+        <is>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+        </is>
+      </c>
       <c r="D99" s="22" t="n"/>
-      <c r="E99" s="22" t="n"/>
+      <c r="E99" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G99" s="22" t="n"/>
-      <c r="H99" s="16" t="n"/>
-      <c r="I99" s="16" t="n"/>
+      <c r="H99" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I99" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
-      <c r="L99" s="26" t="n"/>
+      <c r="L99" s="26" t="inlineStr">
+        <is>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+        </is>
+      </c>
       <c r="M99" s="26" t="n"/>
       <c r="N99" s="26" t="n"/>
       <c r="O99" s="26" t="n"/>
       <c r="P99" s="26" t="n"/>
     </row>
     <row r="100" ht="16.5" customHeight="1" s="13">
-      <c r="A100" s="22" t="n"/>
-      <c r="B100" s="22" t="n"/>
-      <c r="C100" s="22" t="n"/>
+      <c r="A100" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B100" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C100" s="22" t="inlineStr">
+        <is>
+          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+        </is>
+      </c>
       <c r="D100" s="22" t="n"/>
-      <c r="E100" s="22" t="n"/>
+      <c r="E100" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G100" s="22" t="n"/>
-      <c r="H100" s="16" t="n"/>
-      <c r="I100" s="16" t="n"/>
+      <c r="H100" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I100" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
-      <c r="L100" s="26" t="n"/>
+      <c r="L100" s="26" t="inlineStr">
+        <is>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+        </is>
+      </c>
       <c r="M100" s="26" t="n"/>
       <c r="N100" s="26" t="n"/>
       <c r="O100" s="26" t="n"/>
       <c r="P100" s="26" t="n"/>
     </row>
     <row r="101" ht="16.5" customHeight="1" s="13">
-      <c r="A101" s="22" t="n"/>
-      <c r="B101" s="22" t="n"/>
-      <c r="C101" s="22" t="n"/>
+      <c r="A101" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B101" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C101" s="22" t="inlineStr">
+        <is>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+        </is>
+      </c>
       <c r="D101" s="22" t="n"/>
-      <c r="E101" s="22" t="n"/>
+      <c r="E101" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G101" s="22" t="n"/>
-      <c r="H101" s="16" t="n"/>
-      <c r="I101" s="16" t="n"/>
+      <c r="H101" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I101" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
-      <c r="L101" s="26" t="n"/>
+      <c r="L101" s="26" t="inlineStr">
+        <is>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+        </is>
+      </c>
       <c r="M101" s="26" t="n"/>
       <c r="N101" s="26" t="n"/>
       <c r="O101" s="26" t="n"/>
       <c r="P101" s="26" t="n"/>
     </row>
     <row r="102" ht="16.5" customHeight="1" s="13">
-      <c r="A102" s="22" t="n"/>
-      <c r="B102" s="22" t="n"/>
-      <c r="C102" s="22" t="n"/>
+      <c r="A102" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B102" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C102" s="22" t="inlineStr">
+        <is>
+          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
+        </is>
+      </c>
       <c r="D102" s="22" t="n"/>
-      <c r="E102" s="22" t="n"/>
+      <c r="E102" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G102" s="22" t="n"/>
-      <c r="H102" s="16" t="n"/>
-      <c r="I102" s="16" t="n"/>
+      <c r="H102" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I102" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
-      <c r="L102" s="26" t="n"/>
+      <c r="L102" s="26" t="inlineStr">
+        <is>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+        </is>
+      </c>
       <c r="M102" s="26" t="n"/>
       <c r="N102" s="26" t="n"/>
       <c r="O102" s="26" t="n"/>
       <c r="P102" s="26" t="n"/>
     </row>
     <row r="103" ht="16.5" customHeight="1" s="13">
-      <c r="A103" s="22" t="n"/>
-      <c r="B103" s="22" t="n"/>
-      <c r="C103" s="22" t="n"/>
+      <c r="A103" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B103" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C103" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+        </is>
+      </c>
       <c r="D103" s="22" t="n"/>
-      <c r="E103" s="22" t="n"/>
+      <c r="E103" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G103" s="22" t="n"/>
-      <c r="H103" s="16" t="n"/>
-      <c r="I103" s="16" t="n"/>
+      <c r="H103" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I103" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
-      <c r="L103" s="26" t="n"/>
+      <c r="L103" s="26" t="inlineStr">
+        <is>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+        </is>
+      </c>
       <c r="M103" s="26" t="n"/>
       <c r="N103" s="26" t="n"/>
       <c r="O103" s="26" t="n"/>
       <c r="P103" s="26" t="n"/>
     </row>
     <row r="104" ht="16.5" customHeight="1" s="13">
-      <c r="A104" s="22" t="n"/>
-      <c r="B104" s="22" t="n"/>
-      <c r="C104" s="22" t="n"/>
+      <c r="A104" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B104" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C104" s="22" t="inlineStr">
+        <is>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+        </is>
+      </c>
       <c r="D104" s="22" t="n"/>
-      <c r="E104" s="22" t="n"/>
+      <c r="E104" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G104" s="22" t="n"/>
-      <c r="H104" s="16" t="n"/>
-      <c r="I104" s="16" t="n"/>
+      <c r="H104" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I104" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
-      <c r="L104" s="26" t="n"/>
+      <c r="L104" s="26" t="inlineStr">
+        <is>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+        </is>
+      </c>
       <c r="M104" s="26" t="n"/>
       <c r="N104" s="26" t="n"/>
       <c r="O104" s="26" t="n"/>
       <c r="P104" s="26" t="n"/>
     </row>
     <row r="105" ht="16.5" customHeight="1" s="13">
-      <c r="A105" s="22" t="n"/>
-      <c r="B105" s="22" t="n"/>
-      <c r="C105" s="22" t="n"/>
+      <c r="A105" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B105" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C105" s="22" t="inlineStr">
+        <is>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+        </is>
+      </c>
       <c r="D105" s="22" t="n"/>
-      <c r="E105" s="22" t="n"/>
+      <c r="E105" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G105" s="22" t="n"/>
-      <c r="H105" s="16" t="n"/>
-      <c r="I105" s="16" t="n"/>
+      <c r="H105" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I105" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
-      <c r="L105" s="26" t="n"/>
+      <c r="L105" s="26" t="inlineStr">
+        <is>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+        </is>
+      </c>
       <c r="M105" s="26" t="n"/>
       <c r="N105" s="26" t="n"/>
       <c r="O105" s="26" t="n"/>
       <c r="P105" s="26" t="n"/>
     </row>
     <row r="106" ht="16.5" customHeight="1" s="13">
-      <c r="A106" s="22" t="n"/>
-      <c r="B106" s="22" t="n"/>
-      <c r="C106" s="22" t="n"/>
+      <c r="A106" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B106" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C106" s="22" t="inlineStr">
+        <is>
+          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+        </is>
+      </c>
       <c r="D106" s="22" t="n"/>
-      <c r="E106" s="22" t="n"/>
+      <c r="E106" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G106" s="22" t="n"/>
-      <c r="H106" s="16" t="n"/>
-      <c r="I106" s="16" t="n"/>
+      <c r="H106" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I106" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
-      <c r="L106" s="26" t="n"/>
+      <c r="L106" s="26" t="inlineStr">
+        <is>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+        </is>
+      </c>
       <c r="M106" s="26" t="n"/>
       <c r="N106" s="26" t="n"/>
       <c r="O106" s="26" t="n"/>
       <c r="P106" s="26" t="n"/>
     </row>
     <row r="107" ht="16.5" customHeight="1" s="13">
-      <c r="A107" s="22" t="n"/>
-      <c r="B107" s="22" t="n"/>
-      <c r="C107" s="22" t="n"/>
+      <c r="A107" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B107" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C107" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+        </is>
+      </c>
       <c r="D107" s="22" t="n"/>
-      <c r="E107" s="22" t="n"/>
+      <c r="E107" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G107" s="22" t="n"/>
-      <c r="H107" s="16" t="n"/>
-      <c r="I107" s="16" t="n"/>
+      <c r="H107" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
+      <c r="I107" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
-      <c r="L107" s="26" t="n"/>
+      <c r="L107" s="26" t="inlineStr">
+        <is>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+        </is>
+      </c>
       <c r="M107" s="26" t="n"/>
       <c r="N107" s="26" t="n"/>
       <c r="O107" s="26" t="n"/>
       <c r="P107" s="26" t="n"/>
     </row>
     <row r="108" ht="16.5" customHeight="1" s="13">
-      <c r="A108" s="22" t="n"/>
-      <c r="B108" s="22" t="n"/>
-      <c r="C108" s="22" t="n"/>
+      <c r="A108" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B108" s="22" t="inlineStr">
+        <is>
+          <t>App delivery</t>
+        </is>
+      </c>
+      <c r="C108" s="22" t="inlineStr">
+        <is>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+        </is>
+      </c>
       <c r="D108" s="22" t="n"/>
-      <c r="E108" s="22" t="n"/>
+      <c r="E108" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G108" s="22" t="n"/>
-      <c r="H108" s="16" t="n"/>
-      <c r="I108" s="16" t="n"/>
+      <c r="H108" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I108" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
-      <c r="L108" s="26" t="n"/>
+      <c r="L108" s="26" t="inlineStr">
+        <is>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+        </is>
+      </c>
       <c r="M108" s="26" t="n"/>
       <c r="N108" s="26" t="n"/>
       <c r="O108" s="26" t="n"/>
       <c r="P108" s="26" t="n"/>
     </row>
     <row r="109" ht="16.5" customHeight="1" s="13">
-      <c r="A109" s="22" t="n"/>
-      <c r="B109" s="22" t="n"/>
-      <c r="C109" s="22" t="n"/>
+      <c r="A109" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B109" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C109" s="22" t="inlineStr">
+        <is>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+        </is>
+      </c>
       <c r="D109" s="22" t="n"/>
-      <c r="E109" s="22" t="n"/>
+      <c r="E109" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G109" s="22" t="n"/>
-      <c r="H109" s="16" t="n"/>
-      <c r="I109" s="16" t="n"/>
+      <c r="H109" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
-      <c r="L109" s="26" t="n"/>
+      <c r="L109" s="26" t="inlineStr">
+        <is>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+        </is>
+      </c>
       <c r="M109" s="26" t="n"/>
       <c r="N109" s="26" t="n"/>
       <c r="O109" s="26" t="n"/>
       <c r="P109" s="26" t="n"/>
     </row>
     <row r="110" ht="16.5" customHeight="1" s="13">
-      <c r="A110" s="22" t="n"/>
-      <c r="B110" s="22" t="n"/>
-      <c r="C110" s="22" t="n"/>
+      <c r="A110" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B110" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C110" s="22" t="inlineStr">
+        <is>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+        </is>
+      </c>
       <c r="D110" s="22" t="n"/>
-      <c r="E110" s="22" t="n"/>
+      <c r="E110" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G110" s="22" t="n"/>
-      <c r="H110" s="16" t="n"/>
-      <c r="I110" s="16" t="n"/>
+      <c r="H110" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I110" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
-      <c r="L110" s="26" t="n"/>
+      <c r="L110" s="26" t="inlineStr">
+        <is>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+        </is>
+      </c>
       <c r="M110" s="26" t="n"/>
       <c r="N110" s="26" t="n"/>
       <c r="O110" s="26" t="n"/>
       <c r="P110" s="26" t="n"/>
     </row>
     <row r="111" ht="16.5" customHeight="1" s="13">
-      <c r="A111" s="22" t="n"/>
-      <c r="B111" s="22" t="n"/>
-      <c r="C111" s="22" t="n"/>
+      <c r="A111" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B111" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C111" s="22" t="inlineStr">
+        <is>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+        </is>
+      </c>
       <c r="D111" s="22" t="n"/>
-      <c r="E111" s="22" t="n"/>
+      <c r="E111" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G111" s="22" t="n"/>
-      <c r="H111" s="16" t="n"/>
+      <c r="H111" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
-      <c r="L111" s="26" t="n"/>
+      <c r="L111" s="26" t="inlineStr">
+        <is>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+        </is>
+      </c>
       <c r="M111" s="26" t="n"/>
       <c r="N111" s="26" t="n"/>
       <c r="O111" s="26" t="n"/>
       <c r="P111" s="26" t="n"/>
     </row>
     <row r="112" ht="16.5" customHeight="1" s="13">
-      <c r="A112" s="22" t="n"/>
-      <c r="B112" s="22" t="n"/>
-      <c r="C112" s="22" t="n"/>
+      <c r="A112" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B112" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C112" s="22" t="inlineStr">
+        <is>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+        </is>
+      </c>
       <c r="D112" s="22" t="n"/>
-      <c r="E112" s="22" t="n"/>
+      <c r="E112" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G112" s="22" t="n"/>
-      <c r="H112" s="16" t="n"/>
-      <c r="I112" s="16" t="n"/>
+      <c r="H112" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
-      <c r="L112" s="26" t="n"/>
+      <c r="L112" s="26" t="inlineStr">
+        <is>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+        </is>
+      </c>
       <c r="M112" s="26" t="n"/>
       <c r="N112" s="26" t="n"/>
       <c r="O112" s="26" t="n"/>
       <c r="P112" s="26" t="n"/>
     </row>
     <row r="113" ht="16.5" customHeight="1" s="13">
-      <c r="A113" s="22" t="n"/>
-      <c r="B113" s="22" t="n"/>
-      <c r="C113" s="22" t="n"/>
+      <c r="A113" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B113" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C113" s="22" t="inlineStr">
+        <is>
+          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+        </is>
+      </c>
       <c r="D113" s="22" t="n"/>
-      <c r="E113" s="22" t="n"/>
+      <c r="E113" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G113" s="22" t="n"/>
-      <c r="H113" s="16" t="n"/>
-      <c r="I113" s="16" t="n"/>
+      <c r="H113" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I113" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
-      <c r="L113" s="26" t="n"/>
+      <c r="L113" s="26" t="inlineStr">
+        <is>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+        </is>
+      </c>
       <c r="M113" s="26" t="n"/>
       <c r="N113" s="26" t="n"/>
       <c r="O113" s="26" t="n"/>
       <c r="P113" s="26" t="n"/>
     </row>
     <row r="114" ht="16.5" customHeight="1" s="13">
-      <c r="A114" s="22" t="n"/>
-      <c r="B114" s="22" t="n"/>
-      <c r="C114" s="22" t="n"/>
+      <c r="A114" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B114" s="22" t="inlineStr">
+        <is>
+          <t>Segmentation</t>
+        </is>
+      </c>
+      <c r="C114" s="22" t="inlineStr">
+        <is>
+          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+        </is>
+      </c>
       <c r="D114" s="22" t="n"/>
-      <c r="E114" s="22" t="n"/>
+      <c r="E114" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G114" s="22" t="n"/>
-      <c r="H114" s="16" t="n"/>
-      <c r="I114" s="16" t="n"/>
+      <c r="H114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
-      <c r="L114" s="26" t="n"/>
+      <c r="L114" s="26" t="inlineStr">
+        <is>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+        </is>
+      </c>
       <c r="M114" s="26" t="n"/>
       <c r="N114" s="26" t="n"/>
       <c r="O114" s="26" t="n"/>
       <c r="P114" s="26" t="n"/>
     </row>
     <row r="115" ht="16.5" customHeight="1" s="13">
-      <c r="A115" s="22" t="n"/>
-      <c r="B115" s="22" t="n"/>
-      <c r="C115" s="22" t="n"/>
+      <c r="A115" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B115" s="22" t="inlineStr">
+        <is>
+          <t>Encryption</t>
+        </is>
+      </c>
+      <c r="C115" s="22" t="inlineStr">
+        <is>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+        </is>
+      </c>
       <c r="D115" s="22" t="n"/>
-      <c r="E115" s="22" t="n"/>
+      <c r="E115" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G115" s="22" t="n"/>
-      <c r="H115" s="16" t="n"/>
+      <c r="H115" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
-      <c r="L115" s="26" t="n"/>
+      <c r="L115" s="26" t="inlineStr">
+        <is>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+        </is>
+      </c>
       <c r="M115" s="26" t="n"/>
       <c r="N115" s="26" t="n"/>
       <c r="O115" s="26" t="n"/>
       <c r="P115" s="26" t="n"/>
     </row>
     <row r="116" ht="16.5" customHeight="1" s="13">
-      <c r="A116" s="22" t="n"/>
-      <c r="B116" s="22" t="n"/>
-      <c r="C116" s="22" t="n"/>
+      <c r="A116" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B116" s="22" t="inlineStr">
+        <is>
+          <t>Encryption</t>
+        </is>
+      </c>
+      <c r="C116" s="22" t="inlineStr">
+        <is>
+          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
+        </is>
+      </c>
       <c r="D116" s="22" t="n"/>
-      <c r="E116" s="22" t="n"/>
+      <c r="E116" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G116" s="22" t="n"/>
-      <c r="H116" s="16" t="n"/>
+      <c r="H116" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
-      <c r="L116" s="26" t="n"/>
+      <c r="L116" s="26" t="inlineStr">
+        <is>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+        </is>
+      </c>
       <c r="M116" s="26" t="n"/>
       <c r="N116" s="26" t="n"/>
       <c r="O116" s="26" t="n"/>
       <c r="P116" s="26" t="n"/>
     </row>
     <row r="117" ht="16.5" customHeight="1" s="13">
-      <c r="A117" s="22" t="n"/>
-      <c r="B117" s="22" t="n"/>
-      <c r="C117" s="22" t="n"/>
+      <c r="A117" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B117" s="22" t="inlineStr">
+        <is>
+          <t>Encryption</t>
+        </is>
+      </c>
+      <c r="C117" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+        </is>
+      </c>
       <c r="D117" s="22" t="n"/>
-      <c r="E117" s="22" t="n"/>
+      <c r="E117" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G117" s="22" t="n"/>
-      <c r="H117" s="16" t="n"/>
+      <c r="H117" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
-      <c r="L117" s="26" t="n"/>
+      <c r="L117" s="26" t="inlineStr">
+        <is>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+        </is>
+      </c>
       <c r="M117" s="26" t="n"/>
       <c r="N117" s="26" t="n"/>
       <c r="O117" s="26" t="n"/>
       <c r="P117" s="26" t="n"/>
     </row>
     <row r="118" ht="16.5" customHeight="1" s="13">
-      <c r="A118" s="22" t="n"/>
-      <c r="B118" s="22" t="n"/>
-      <c r="C118" s="22" t="n"/>
+      <c r="A118" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B118" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C118" s="22" t="inlineStr">
+        <is>
+          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+        </is>
+      </c>
       <c r="D118" s="22" t="n"/>
-      <c r="E118" s="22" t="n"/>
+      <c r="E118" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G118" s="22" t="n"/>
-      <c r="H118" s="16" t="n"/>
-      <c r="I118" s="16" t="n"/>
+      <c r="H118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
-      <c r="L118" s="26" t="n"/>
+      <c r="L118" s="26" t="inlineStr">
+        <is>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+        </is>
+      </c>
       <c r="M118" s="26" t="n"/>
       <c r="N118" s="26" t="n"/>
       <c r="O118" s="26" t="n"/>
       <c r="P118" s="26" t="n"/>
     </row>
     <row r="119" ht="16.5" customHeight="1" s="13">
-      <c r="A119" s="22" t="n"/>
-      <c r="B119" s="22" t="n"/>
-      <c r="C119" s="22" t="n"/>
+      <c r="A119" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B119" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C119" s="22" t="inlineStr">
+        <is>
+          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
+        </is>
+      </c>
       <c r="D119" s="22" t="n"/>
-      <c r="E119" s="22" t="n"/>
+      <c r="E119" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G119" s="22" t="n"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
-      <c r="L119" s="26" t="n"/>
+      <c r="L119" s="26" t="inlineStr">
+        <is>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+        </is>
+      </c>
       <c r="M119" s="26" t="n"/>
       <c r="N119" s="26" t="n"/>
       <c r="O119" s="26" t="n"/>
       <c r="P119" s="26" t="n"/>
     </row>
     <row r="120" ht="16.5" customHeight="1" s="13">
-      <c r="A120" s="22" t="n"/>
-      <c r="B120" s="22" t="n"/>
-      <c r="C120" s="22" t="n"/>
+      <c r="A120" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B120" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C120" s="22" t="inlineStr">
+        <is>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+        </is>
+      </c>
       <c r="D120" s="22" t="n"/>
-      <c r="E120" s="22" t="n"/>
+      <c r="E120" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G120" s="22" t="n"/>
-      <c r="H120" s="16" t="n"/>
+      <c r="H120" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
       <c r="I120" s="16" t="n"/>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
-      <c r="L120" s="26" t="n"/>
+      <c r="L120" s="26" t="inlineStr">
+        <is>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+        </is>
+      </c>
       <c r="M120" s="26" t="n"/>
       <c r="N120" s="26" t="n"/>
       <c r="O120" s="26" t="n"/>
       <c r="P120" s="26" t="n"/>
     </row>
     <row r="121" ht="16.5" customHeight="1" s="13">
-      <c r="A121" s="22" t="n"/>
-      <c r="B121" s="22" t="n"/>
-      <c r="C121" s="22" t="n"/>
+      <c r="A121" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B121" s="22" t="inlineStr">
+        <is>
+          <t>Inspection</t>
+        </is>
+      </c>
+      <c r="C121" s="22" t="inlineStr">
+        <is>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+        </is>
+      </c>
       <c r="D121" s="22" t="n"/>
-      <c r="E121" s="22" t="n"/>
+      <c r="E121" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G121" s="22" t="n"/>
-      <c r="H121" s="16" t="n"/>
+      <c r="H121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
       <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
-      <c r="L121" s="26" t="n"/>
+      <c r="L121" s="26" t="inlineStr">
+        <is>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+        </is>
+      </c>
       <c r="M121" s="26" t="n"/>
       <c r="N121" s="26" t="n"/>
       <c r="O121" s="26" t="n"/>
       <c r="P121" s="26" t="n"/>
     </row>
     <row r="122" ht="16.5" customHeight="1" s="13">
-      <c r="A122" s="22" t="n"/>
-      <c r="B122" s="22" t="n"/>
-      <c r="C122" s="22" t="n"/>
+      <c r="A122" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B122" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C122" s="22" t="inlineStr">
+        <is>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+        </is>
+      </c>
       <c r="D122" s="22" t="n"/>
-      <c r="E122" s="22" t="n"/>
+      <c r="E122" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
-      <c r="L122" s="26" t="n"/>
+      <c r="L122" s="26" t="inlineStr">
+        <is>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+        </is>
+      </c>
       <c r="M122" s="26" t="n"/>
       <c r="N122" s="26" t="n"/>
       <c r="O122" s="26" t="n"/>
       <c r="P122" s="26" t="n"/>
     </row>
     <row r="123" ht="16.5" customHeight="1" s="13">
-      <c r="A123" s="22" t="n"/>
-      <c r="B123" s="22" t="n"/>
-      <c r="C123" s="22" t="n"/>
+      <c r="A123" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B123" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C123" s="22" t="inlineStr">
+        <is>
+          <t>Is the landing zone documented?</t>
+        </is>
+      </c>
       <c r="D123" s="22" t="n"/>
-      <c r="E123" s="22" t="n"/>
+      <c r="E123" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="n"/>
       <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
-      <c r="L123" s="26" t="n"/>
+      <c r="L123" s="26" t="inlineStr">
+        <is>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+        </is>
+      </c>
       <c r="M123" s="26" t="n"/>
       <c r="N123" s="26" t="n"/>
       <c r="O123" s="26" t="n"/>
       <c r="P123" s="26" t="n"/>
     </row>
     <row r="124" ht="16.5" customHeight="1" s="13">
-      <c r="A124" s="22" t="n"/>
-      <c r="B124" s="22" t="n"/>
-      <c r="C124" s="22" t="n"/>
+      <c r="A124" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B124" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C124" s="22" t="inlineStr">
+        <is>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+        </is>
+      </c>
       <c r="D124" s="22" t="n"/>
-      <c r="E124" s="22" t="n"/>
+      <c r="E124" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G124" s="22" t="n"/>
-      <c r="H124" s="16" t="n"/>
-      <c r="I124" s="16" t="n"/>
+      <c r="H124" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I124" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
-      <c r="L124" s="26" t="n"/>
+      <c r="L124" s="26" t="inlineStr">
+        <is>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+        </is>
+      </c>
       <c r="M124" s="26" t="n"/>
       <c r="N124" s="26" t="n"/>
       <c r="O124" s="26" t="n"/>
       <c r="P124" s="26" t="n"/>
     </row>
     <row r="125" ht="16.5" customHeight="1" s="13">
-      <c r="A125" s="22" t="n"/>
-      <c r="B125" s="22" t="n"/>
-      <c r="C125" s="22" t="n"/>
+      <c r="A125" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B125" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C125" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+        </is>
+      </c>
       <c r="D125" s="22" t="n"/>
-      <c r="E125" s="22" t="n"/>
+      <c r="E125" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G125" s="22" t="n"/>
-      <c r="H125" s="16" t="n"/>
-      <c r="I125" s="16" t="n"/>
+      <c r="H125" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I125" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
-      <c r="L125" s="26" t="n"/>
+      <c r="L125" s="26" t="inlineStr">
+        <is>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+        </is>
+      </c>
       <c r="M125" s="26" t="n"/>
       <c r="N125" s="26" t="n"/>
       <c r="O125" s="26" t="n"/>
       <c r="P125" s="26" t="n"/>
     </row>
     <row r="126" ht="16.5" customHeight="1" s="13">
-      <c r="A126" s="22" t="n"/>
-      <c r="B126" s="22" t="n"/>
-      <c r="C126" s="22" t="n"/>
+      <c r="A126" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B126" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C126" s="22" t="inlineStr">
+        <is>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+        </is>
+      </c>
       <c r="D126" s="22" t="n"/>
-      <c r="E126" s="22" t="n"/>
+      <c r="E126" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G126" s="22" t="n"/>
-      <c r="H126" s="16" t="n"/>
+      <c r="H126" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
-      <c r="L126" s="26" t="n"/>
+      <c r="L126" s="26" t="inlineStr">
+        <is>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+        </is>
+      </c>
       <c r="M126" s="26" t="n"/>
       <c r="N126" s="26" t="n"/>
       <c r="O126" s="26" t="n"/>
       <c r="P126" s="26" t="n"/>
     </row>
     <row r="127" ht="16.5" customHeight="1" s="13">
-      <c r="A127" s="22" t="n"/>
-      <c r="B127" s="22" t="n"/>
-      <c r="C127" s="22" t="n"/>
+      <c r="A127" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B127" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C127" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+        </is>
+      </c>
       <c r="D127" s="22" t="n"/>
-      <c r="E127" s="22" t="n"/>
+      <c r="E127" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G127" s="22" t="n"/>
-      <c r="H127" s="16" t="n"/>
+      <c r="H127" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
-      <c r="L127" s="26" t="n"/>
+      <c r="L127" s="26" t="inlineStr">
+        <is>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+        </is>
+      </c>
       <c r="M127" s="26" t="n"/>
       <c r="N127" s="26" t="n"/>
       <c r="O127" s="26" t="n"/>
       <c r="P127" s="26" t="n"/>
     </row>
     <row r="128" ht="16.5" customHeight="1" s="13">
-      <c r="A128" s="22" t="n"/>
-      <c r="B128" s="22" t="n"/>
-      <c r="C128" s="22" t="n"/>
+      <c r="A128" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B128" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C128" s="22" t="inlineStr">
+        <is>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
+        </is>
+      </c>
       <c r="D128" s="22" t="n"/>
-      <c r="E128" s="22" t="n"/>
+      <c r="E128" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G128" s="22" t="n"/>
-      <c r="H128" s="16" t="n"/>
+      <c r="H128" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+        </is>
+      </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
-      <c r="L128" s="26" t="n"/>
+      <c r="L128" s="26" t="inlineStr">
+        <is>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+        </is>
+      </c>
       <c r="M128" s="26" t="n"/>
       <c r="N128" s="26" t="n"/>
       <c r="O128" s="26" t="n"/>
       <c r="P128" s="26" t="n"/>
     </row>
     <row r="129" ht="16.5" customHeight="1" s="13">
-      <c r="A129" s="22" t="n"/>
-      <c r="B129" s="22" t="n"/>
-      <c r="C129" s="22" t="n"/>
+      <c r="A129" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B129" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C129" s="22" t="inlineStr">
+        <is>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+        </is>
+      </c>
       <c r="D129" s="22" t="n"/>
-      <c r="E129" s="22" t="n"/>
+      <c r="E129" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G129" s="22" t="n"/>
-      <c r="H129" s="16" t="n"/>
+      <c r="H129" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
-      <c r="L129" s="26" t="n"/>
+      <c r="L129" s="26" t="inlineStr">
+        <is>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+        </is>
+      </c>
       <c r="M129" s="26" t="n"/>
       <c r="N129" s="26" t="n"/>
       <c r="O129" s="26" t="n"/>
       <c r="P129" s="26" t="n"/>
     </row>
     <row r="130" ht="16.5" customHeight="1" s="13">
-      <c r="A130" s="22" t="n"/>
-      <c r="B130" s="22" t="n"/>
-      <c r="C130" s="22" t="n"/>
+      <c r="A130" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B130" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C130" s="22" t="inlineStr">
+        <is>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+        </is>
+      </c>
       <c r="D130" s="22" t="n"/>
-      <c r="E130" s="22" t="n"/>
+      <c r="E130" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G130" s="22" t="n"/>
-      <c r="H130" s="16" t="n"/>
+      <c r="H130" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
-      <c r="L130" s="26" t="n"/>
+      <c r="L130" s="26" t="inlineStr">
+        <is>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+        </is>
+      </c>
       <c r="M130" s="26" t="n"/>
       <c r="N130" s="26" t="n"/>
       <c r="O130" s="26" t="n"/>
       <c r="P130" s="26" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1" s="13">
-      <c r="A131" s="22" t="n"/>
-      <c r="B131" s="22" t="n"/>
-      <c r="C131" s="22" t="n"/>
+      <c r="A131" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B131" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C131" s="22" t="inlineStr">
+        <is>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+        </is>
+      </c>
       <c r="D131" s="22" t="n"/>
-      <c r="E131" s="22" t="n"/>
+      <c r="E131" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G131" s="22" t="n"/>
-      <c r="H131" s="16" t="n"/>
+      <c r="H131" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+        </is>
+      </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
-      <c r="L131" s="26" t="n"/>
+      <c r="L131" s="26" t="inlineStr">
+        <is>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+        </is>
+      </c>
       <c r="M131" s="26" t="n"/>
       <c r="N131" s="26" t="n"/>
       <c r="O131" s="26" t="n"/>
       <c r="P131" s="26" t="n"/>
     </row>
     <row r="132" ht="16.5" customHeight="1" s="13">
-      <c r="A132" s="22" t="n"/>
-      <c r="B132" s="22" t="n"/>
-      <c r="C132" s="22" t="n"/>
+      <c r="A132" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B132" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C132" s="22" t="inlineStr">
+        <is>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+        </is>
+      </c>
       <c r="D132" s="22" t="n"/>
-      <c r="E132" s="22" t="n"/>
+      <c r="E132" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G132" s="22" t="n"/>
-      <c r="H132" s="16" t="n"/>
+      <c r="H132" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+        </is>
+      </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
-      <c r="L132" s="26" t="n"/>
+      <c r="L132" s="26" t="inlineStr">
+        <is>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+        </is>
+      </c>
       <c r="M132" s="26" t="n"/>
       <c r="N132" s="26" t="n"/>
       <c r="O132" s="26" t="n"/>
       <c r="P132" s="26" t="n"/>
     </row>
     <row r="133" ht="16.5" customHeight="1" s="13">
-      <c r="A133" s="22" t="n"/>
-      <c r="B133" s="22" t="n"/>
-      <c r="C133" s="22" t="n"/>
+      <c r="A133" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B133" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C133" s="22" t="inlineStr">
+        <is>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+        </is>
+      </c>
       <c r="D133" s="22" t="n"/>
-      <c r="E133" s="22" t="n"/>
+      <c r="E133" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G133" s="22" t="n"/>
-      <c r="H133" s="16" t="n"/>
+      <c r="H133" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+        </is>
+      </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
-      <c r="L133" s="26" t="n"/>
+      <c r="L133" s="26" t="inlineStr">
+        <is>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+        </is>
+      </c>
       <c r="M133" s="26" t="n"/>
       <c r="N133" s="26" t="n"/>
       <c r="O133" s="26" t="n"/>
       <c r="P133" s="26" t="n"/>
     </row>
     <row r="134" ht="16.5" customHeight="1" s="13">
-      <c r="A134" s="22" t="n"/>
-      <c r="B134" s="22" t="n"/>
-      <c r="C134" s="22" t="n"/>
+      <c r="A134" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B134" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C134" s="22" t="inlineStr">
+        <is>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+        </is>
+      </c>
       <c r="D134" s="22" t="n"/>
-      <c r="E134" s="22" t="n"/>
+      <c r="E134" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G134" s="22" t="n"/>
-      <c r="H134" s="16" t="n"/>
+      <c r="H134" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
-      <c r="L134" s="26" t="n"/>
+      <c r="L134" s="26" t="inlineStr">
+        <is>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+        </is>
+      </c>
       <c r="M134" s="26" t="n"/>
       <c r="N134" s="26" t="n"/>
       <c r="O134" s="26" t="n"/>
       <c r="P134" s="26" t="n"/>
     </row>
     <row r="135" ht="16.5" customHeight="1" s="13">
-      <c r="A135" s="22" t="n"/>
-      <c r="B135" s="22" t="n"/>
-      <c r="C135" s="22" t="n"/>
+      <c r="A135" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B135" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C135" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
+        </is>
+      </c>
       <c r="D135" s="22" t="n"/>
-      <c r="E135" s="22" t="n"/>
+      <c r="E135" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G135" s="22" t="n"/>
-      <c r="H135" s="16" t="n"/>
+      <c r="H135" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+        </is>
+      </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
-      <c r="L135" s="26" t="n"/>
+      <c r="L135" s="26" t="inlineStr">
+        <is>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+        </is>
+      </c>
       <c r="M135" s="26" t="n"/>
       <c r="N135" s="26" t="n"/>
       <c r="O135" s="26" t="n"/>
       <c r="P135" s="26" t="n"/>
     </row>
     <row r="136" ht="16.5" customHeight="1" s="13">
-      <c r="A136" s="22" t="n"/>
-      <c r="B136" s="22" t="n"/>
-      <c r="C136" s="22" t="n"/>
+      <c r="A136" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B136" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C136" s="22" t="inlineStr">
+        <is>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+        </is>
+      </c>
       <c r="D136" s="22" t="n"/>
-      <c r="E136" s="22" t="n"/>
+      <c r="E136" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G136" s="22" t="n"/>
-      <c r="H136" s="16" t="n"/>
+      <c r="H136" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+        </is>
+      </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
-      <c r="L136" s="26" t="n"/>
+      <c r="L136" s="26" t="inlineStr">
+        <is>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+        </is>
+      </c>
       <c r="M136" s="26" t="n"/>
       <c r="N136" s="26" t="n"/>
       <c r="O136" s="26" t="n"/>
       <c r="P136" s="26" t="n"/>
     </row>
     <row r="137" ht="16.5" customHeight="1" s="13">
-      <c r="A137" s="22" t="n"/>
-      <c r="B137" s="22" t="n"/>
-      <c r="C137" s="22" t="n"/>
+      <c r="A137" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B137" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C137" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+        </is>
+      </c>
       <c r="D137" s="22" t="n"/>
-      <c r="E137" s="22" t="n"/>
+      <c r="E137" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G137" s="22" t="n"/>
-      <c r="H137" s="16" t="n"/>
+      <c r="H137" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+        </is>
+      </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
-      <c r="L137" s="26" t="n"/>
+      <c r="L137" s="26" t="inlineStr">
+        <is>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+        </is>
+      </c>
       <c r="M137" s="26" t="n"/>
       <c r="N137" s="26" t="n"/>
       <c r="O137" s="26" t="n"/>
       <c r="P137" s="26" t="n"/>
     </row>
     <row r="138" ht="16.5" customHeight="1" s="13">
-      <c r="A138" s="22" t="n"/>
-      <c r="B138" s="22" t="n"/>
-      <c r="C138" s="22" t="n"/>
+      <c r="A138" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B138" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C138" s="22" t="inlineStr">
+        <is>
+          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+        </is>
+      </c>
       <c r="D138" s="22" t="n"/>
-      <c r="E138" s="22" t="n"/>
+      <c r="E138" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G138" s="22" t="n"/>
-      <c r="H138" s="16" t="n"/>
+      <c r="H138" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+        </is>
+      </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
-      <c r="L138" s="26" t="n"/>
+      <c r="L138" s="26" t="inlineStr">
+        <is>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+        </is>
+      </c>
       <c r="M138" s="26" t="n"/>
       <c r="N138" s="26" t="n"/>
       <c r="O138" s="26" t="n"/>
       <c r="P138" s="26" t="n"/>
     </row>
     <row r="139" ht="16.5" customHeight="1" s="13">
-      <c r="A139" s="22" t="n"/>
-      <c r="B139" s="22" t="n"/>
-      <c r="C139" s="22" t="n"/>
+      <c r="A139" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B139" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C139" s="22" t="inlineStr">
+        <is>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+        </is>
+      </c>
       <c r="D139" s="22" t="n"/>
-      <c r="E139" s="22" t="n"/>
+      <c r="E139" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G139" s="22" t="n"/>
-      <c r="H139" s="16" t="n"/>
+      <c r="H139" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+        </is>
+      </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
-      <c r="L139" s="26" t="n"/>
+      <c r="L139" s="26" t="inlineStr">
+        <is>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+        </is>
+      </c>
       <c r="M139" s="26" t="n"/>
       <c r="N139" s="26" t="n"/>
       <c r="O139" s="26" t="n"/>
       <c r="P139" s="26" t="n"/>
     </row>
     <row r="140" ht="16.5" customHeight="1" s="13">
-      <c r="A140" s="22" t="n"/>
-      <c r="B140" s="22" t="n"/>
-      <c r="C140" s="22" t="n"/>
+      <c r="A140" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B140" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C140" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+        </is>
+      </c>
       <c r="D140" s="22" t="n"/>
-      <c r="E140" s="22" t="n"/>
+      <c r="E140" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G140" s="22" t="n"/>
-      <c r="H140" s="16" t="n"/>
+      <c r="H140" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+        </is>
+      </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
-      <c r="L140" s="26" t="n"/>
+      <c r="L140" s="26" t="inlineStr">
+        <is>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+        </is>
+      </c>
       <c r="M140" s="26" t="n"/>
       <c r="N140" s="26" t="n"/>
       <c r="O140" s="26" t="n"/>
       <c r="P140" s="26" t="n"/>
     </row>
     <row r="141" ht="16.5" customHeight="1" s="13">
-      <c r="A141" s="22" t="n"/>
-      <c r="B141" s="22" t="n"/>
-      <c r="C141" s="22" t="n"/>
+      <c r="A141" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B141" s="22" t="inlineStr">
+        <is>
+          <t>Monitoring</t>
+        </is>
+      </c>
+      <c r="C141" s="22" t="inlineStr">
+        <is>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
+        </is>
+      </c>
       <c r="D141" s="22" t="n"/>
-      <c r="E141" s="22" t="n"/>
+      <c r="E141" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G141" s="22" t="n"/>
-      <c r="H141" s="16" t="n"/>
+      <c r="H141" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
+        </is>
+      </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
-      <c r="L141" s="26" t="n"/>
+      <c r="L141" s="26" t="inlineStr">
+        <is>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+        </is>
+      </c>
       <c r="M141" s="26" t="n"/>
       <c r="N141" s="26" t="n"/>
       <c r="O141" s="26" t="n"/>
       <c r="P141" s="26" t="n"/>
     </row>
     <row r="142" ht="16.5" customHeight="1" s="13">
-      <c r="A142" s="22" t="n"/>
-      <c r="B142" s="22" t="n"/>
-      <c r="C142" s="22" t="n"/>
+      <c r="A142" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B142" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C142" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
+        </is>
+      </c>
       <c r="D142" s="22" t="n"/>
-      <c r="E142" s="22" t="n"/>
+      <c r="E142" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G142" s="22" t="n"/>
-      <c r="H142" s="16" t="n"/>
+      <c r="H142" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+        </is>
+      </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
-      <c r="L142" s="26" t="n"/>
+      <c r="L142" s="26" t="inlineStr">
+        <is>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+        </is>
+      </c>
       <c r="M142" s="26" t="n"/>
       <c r="N142" s="26" t="n"/>
       <c r="O142" s="26" t="n"/>
       <c r="P142" s="26" t="n"/>
     </row>
     <row r="143" ht="16.5" customHeight="1" s="13">
-      <c r="A143" s="22" t="n"/>
-      <c r="B143" s="22" t="n"/>
-      <c r="C143" s="22" t="n"/>
+      <c r="A143" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B143" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C143" s="22" t="inlineStr">
+        <is>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+        </is>
+      </c>
       <c r="D143" s="22" t="n"/>
-      <c r="E143" s="22" t="n"/>
+      <c r="E143" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G143" s="22" t="n"/>
-      <c r="H143" s="16" t="n"/>
+      <c r="H143" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+        </is>
+      </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
-      <c r="L143" s="26" t="n"/>
+      <c r="L143" s="26" t="inlineStr">
+        <is>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+        </is>
+      </c>
       <c r="M143" s="26" t="n"/>
       <c r="N143" s="26" t="n"/>
       <c r="O143" s="26" t="n"/>
       <c r="P143" s="26" t="n"/>
     </row>
     <row r="144" ht="16.5" customHeight="1" s="13">
-      <c r="A144" s="22" t="n"/>
-      <c r="B144" s="22" t="n"/>
-      <c r="C144" s="22" t="n"/>
+      <c r="A144" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B144" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C144" s="22" t="inlineStr">
+        <is>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+        </is>
+      </c>
       <c r="D144" s="22" t="n"/>
-      <c r="E144" s="22" t="n"/>
+      <c r="E144" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G144" s="22" t="n"/>
-      <c r="H144" s="16" t="n"/>
+      <c r="H144" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
-      <c r="L144" s="26" t="n"/>
+      <c r="L144" s="26" t="inlineStr">
+        <is>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+        </is>
+      </c>
       <c r="M144" s="26" t="n"/>
       <c r="N144" s="26" t="n"/>
       <c r="O144" s="26" t="n"/>
       <c r="P144" s="26" t="n"/>
     </row>
     <row r="145" ht="16.5" customHeight="1" s="13">
-      <c r="A145" s="22" t="n"/>
-      <c r="B145" s="22" t="n"/>
-      <c r="C145" s="22" t="n"/>
+      <c r="A145" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B145" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C145" s="22" t="inlineStr">
+        <is>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+        </is>
+      </c>
       <c r="D145" s="22" t="n"/>
-      <c r="E145" s="22" t="n"/>
+      <c r="E145" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G145" s="22" t="n"/>
-      <c r="H145" s="16" t="n"/>
+      <c r="H145" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
-      <c r="L145" s="26" t="n"/>
+      <c r="L145" s="26" t="inlineStr">
+        <is>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+        </is>
+      </c>
       <c r="M145" s="26" t="n"/>
       <c r="N145" s="26" t="n"/>
       <c r="O145" s="26" t="n"/>
       <c r="P145" s="26" t="n"/>
     </row>
     <row r="146" ht="16.5" customHeight="1" s="13">
-      <c r="A146" s="22" t="n"/>
-      <c r="B146" s="22" t="n"/>
-      <c r="C146" s="22" t="n"/>
+      <c r="A146" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B146" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C146" s="22" t="inlineStr">
+        <is>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+        </is>
+      </c>
       <c r="D146" s="22" t="n"/>
-      <c r="E146" s="22" t="n"/>
+      <c r="E146" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G146" s="22" t="n"/>
-      <c r="H146" s="16" t="n"/>
+      <c r="H146" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
-      <c r="L146" s="26" t="n"/>
+      <c r="L146" s="26" t="inlineStr">
+        <is>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+        </is>
+      </c>
       <c r="M146" s="26" t="n"/>
       <c r="N146" s="26" t="n"/>
       <c r="O146" s="26" t="n"/>
       <c r="P146" s="26" t="n"/>
     </row>
     <row r="147" ht="16.5" customHeight="1" s="13">
-      <c r="A147" s="22" t="n"/>
-      <c r="B147" s="22" t="n"/>
-      <c r="C147" s="22" t="n"/>
+      <c r="A147" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B147" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C147" s="22" t="inlineStr">
+        <is>
+          <t>Establish an automated process for key and certificate rotation.</t>
+        </is>
+      </c>
       <c r="D147" s="22" t="n"/>
-      <c r="E147" s="22" t="n"/>
+      <c r="E147" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G147" s="22" t="n"/>
-      <c r="H147" s="16" t="n"/>
+      <c r="H147" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
-      <c r="L147" s="26" t="n"/>
+      <c r="L147" s="26" t="inlineStr">
+        <is>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+        </is>
+      </c>
       <c r="M147" s="26" t="n"/>
       <c r="N147" s="26" t="n"/>
       <c r="O147" s="26" t="n"/>
       <c r="P147" s="26" t="n"/>
     </row>
     <row r="148" ht="16.5" customHeight="1" s="13">
-      <c r="A148" s="22" t="n"/>
-      <c r="B148" s="22" t="n"/>
-      <c r="C148" s="22" t="n"/>
+      <c r="A148" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B148" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C148" s="22" t="inlineStr">
+        <is>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+        </is>
+      </c>
       <c r="D148" s="22" t="n"/>
-      <c r="E148" s="22" t="n"/>
+      <c r="E148" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G148" s="22" t="n"/>
-      <c r="H148" s="16" t="n"/>
+      <c r="H148" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
-      <c r="L148" s="26" t="n"/>
+      <c r="L148" s="26" t="inlineStr">
+        <is>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+        </is>
+      </c>
       <c r="M148" s="26" t="n"/>
       <c r="N148" s="26" t="n"/>
       <c r="O148" s="26" t="n"/>
       <c r="P148" s="26" t="n"/>
     </row>
     <row r="149" ht="16.5" customHeight="1" s="13">
-      <c r="A149" s="22" t="n"/>
-      <c r="B149" s="22" t="n"/>
-      <c r="C149" s="22" t="n"/>
+      <c r="A149" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B149" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C149" s="22" t="inlineStr">
+        <is>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+        </is>
+      </c>
       <c r="D149" s="22" t="n"/>
-      <c r="E149" s="22" t="n"/>
+      <c r="E149" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G149" s="22" t="n"/>
-      <c r="H149" s="16" t="n"/>
+      <c r="H149" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+        </is>
+      </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
-      <c r="L149" s="26" t="n"/>
+      <c r="L149" s="26" t="inlineStr">
+        <is>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+        </is>
+      </c>
       <c r="M149" s="26" t="n"/>
       <c r="N149" s="26" t="n"/>
       <c r="O149" s="26" t="n"/>
       <c r="P149" s="26" t="n"/>
     </row>
     <row r="150" ht="16.5" customHeight="1" s="13">
-      <c r="A150" s="22" t="n"/>
-      <c r="B150" s="22" t="n"/>
-      <c r="C150" s="22" t="n"/>
+      <c r="A150" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B150" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C150" s="22" t="inlineStr">
+        <is>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+        </is>
+      </c>
       <c r="D150" s="22" t="n"/>
-      <c r="E150" s="22" t="n"/>
+      <c r="E150" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G150" s="22" t="n"/>
-      <c r="H150" s="16" t="n"/>
+      <c r="H150" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
-      <c r="L150" s="26" t="n"/>
+      <c r="L150" s="26" t="inlineStr">
+        <is>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+        </is>
+      </c>
       <c r="M150" s="26" t="n"/>
       <c r="N150" s="26" t="n"/>
       <c r="O150" s="26" t="n"/>
       <c r="P150" s="26" t="n"/>
     </row>
     <row r="151" ht="16.5" customHeight="1" s="13">
-      <c r="A151" s="22" t="n"/>
-      <c r="B151" s="22" t="n"/>
-      <c r="C151" s="22" t="n"/>
+      <c r="A151" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B151" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C151" s="22" t="inlineStr">
+        <is>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+        </is>
+      </c>
       <c r="D151" s="22" t="n"/>
-      <c r="E151" s="22" t="n"/>
+      <c r="E151" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G151" s="22" t="n"/>
-      <c r="H151" s="16" t="n"/>
+      <c r="H151" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+        </is>
+      </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
-      <c r="L151" s="26" t="n"/>
+      <c r="L151" s="26" t="inlineStr">
+        <is>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+        </is>
+      </c>
       <c r="M151" s="26" t="n"/>
       <c r="N151" s="26" t="n"/>
       <c r="O151" s="26" t="n"/>
       <c r="P151" s="26" t="n"/>
     </row>
     <row r="152" ht="16.5" customHeight="1" s="13">
-      <c r="A152" s="22" t="n"/>
-      <c r="B152" s="22" t="n"/>
-      <c r="C152" s="22" t="n"/>
+      <c r="A152" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B152" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C152" s="22" t="inlineStr">
+        <is>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
+        </is>
+      </c>
       <c r="D152" s="22" t="n"/>
-      <c r="E152" s="22" t="n"/>
+      <c r="E152" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G152" s="22" t="n"/>
-      <c r="H152" s="16" t="n"/>
+      <c r="H152" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
-      <c r="L152" s="26" t="n"/>
+      <c r="L152" s="26" t="inlineStr">
+        <is>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+        </is>
+      </c>
       <c r="M152" s="26" t="n"/>
       <c r="N152" s="26" t="n"/>
       <c r="O152" s="26" t="n"/>
       <c r="P152" s="26" t="n"/>
     </row>
     <row r="153" ht="16.5" customHeight="1" s="13">
-      <c r="A153" s="22" t="n"/>
-      <c r="B153" s="22" t="n"/>
-      <c r="C153" s="22" t="n"/>
+      <c r="A153" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B153" s="22" t="inlineStr">
+        <is>
+          <t>Secrets</t>
+        </is>
+      </c>
+      <c r="C153" s="22" t="inlineStr">
+        <is>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+        </is>
+      </c>
       <c r="D153" s="22" t="n"/>
-      <c r="E153" s="22" t="n"/>
+      <c r="E153" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G153" s="22" t="n"/>
-      <c r="H153" s="16" t="n"/>
+      <c r="H153" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
-      <c r="L153" s="26" t="n"/>
+      <c r="L153" s="26" t="inlineStr">
+        <is>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+        </is>
+      </c>
       <c r="M153" s="26" t="n"/>
       <c r="N153" s="26" t="n"/>
       <c r="O153" s="26" t="n"/>
       <c r="P153" s="26" t="n"/>
     </row>
     <row r="154" ht="16.5" customHeight="1" s="13">
-      <c r="A154" s="22" t="n"/>
-      <c r="B154" s="22" t="n"/>
-      <c r="C154" s="22" t="n"/>
+      <c r="A154" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B154" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C154" s="22" t="inlineStr">
+        <is>
+          <t>Leverage Azure Policy</t>
+        </is>
+      </c>
       <c r="D154" s="22" t="n"/>
-      <c r="E154" s="22" t="n"/>
+      <c r="E154" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G154" s="22" t="n"/>
-      <c r="H154" s="16" t="n"/>
+      <c r="H154" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
-      <c r="L154" s="26" t="n"/>
+      <c r="L154" s="26" t="inlineStr">
+        <is>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+        </is>
+      </c>
       <c r="M154" s="26" t="n"/>
       <c r="N154" s="26" t="n"/>
       <c r="O154" s="26" t="n"/>
       <c r="P154" s="26" t="n"/>
     </row>
     <row r="155" ht="16.5" customHeight="1" s="13">
-      <c r="A155" s="22" t="n"/>
-      <c r="B155" s="22" t="n"/>
-      <c r="C155" s="22" t="n"/>
+      <c r="A155" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B155" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C155" s="22" t="inlineStr">
+        <is>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+        </is>
+      </c>
       <c r="D155" s="22" t="n"/>
-      <c r="E155" s="22" t="n"/>
+      <c r="E155" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G155" s="22" t="n"/>
-      <c r="H155" s="16" t="n"/>
+      <c r="H155" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+        </is>
+      </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
-      <c r="L155" s="26" t="n"/>
+      <c r="L155" s="26" t="inlineStr">
+        <is>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+        </is>
+      </c>
       <c r="M155" s="26" t="n"/>
       <c r="N155" s="26" t="n"/>
       <c r="O155" s="26" t="n"/>
       <c r="P155" s="26" t="n"/>
     </row>
     <row r="156" ht="16.5" customHeight="1" s="13">
-      <c r="A156" s="22" t="n"/>
-      <c r="B156" s="22" t="n"/>
-      <c r="C156" s="22" t="n"/>
+      <c r="A156" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B156" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C156" s="22" t="inlineStr">
+        <is>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+        </is>
+      </c>
       <c r="D156" s="22" t="n"/>
-      <c r="E156" s="22" t="n"/>
+      <c r="E156" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G156" s="22" t="n"/>
-      <c r="H156" s="16" t="n"/>
+      <c r="H156" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
-      <c r="L156" s="26" t="n"/>
+      <c r="L156" s="26" t="inlineStr">
+        <is>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+        </is>
+      </c>
       <c r="M156" s="26" t="n"/>
       <c r="N156" s="26" t="n"/>
       <c r="O156" s="26" t="n"/>
       <c r="P156" s="26" t="n"/>
     </row>
     <row r="157" ht="16.5" customHeight="1" s="13">
-      <c r="A157" s="22" t="n"/>
-      <c r="B157" s="22" t="n"/>
-      <c r="C157" s="22" t="n"/>
+      <c r="A157" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B157" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C157" s="22" t="inlineStr">
+        <is>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+        </is>
+      </c>
       <c r="D157" s="22" t="n"/>
-      <c r="E157" s="22" t="n"/>
+      <c r="E157" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G157" s="22" t="n"/>
-      <c r="H157" s="16" t="n"/>
+      <c r="H157" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
-      <c r="L157" s="26" t="n"/>
+      <c r="L157" s="26" t="inlineStr">
+        <is>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+        </is>
+      </c>
       <c r="M157" s="26" t="n"/>
       <c r="N157" s="26" t="n"/>
       <c r="O157" s="26" t="n"/>
       <c r="P157" s="26" t="n"/>
     </row>
     <row r="158" ht="16.5" customHeight="1" s="13">
-      <c r="A158" s="22" t="n"/>
-      <c r="B158" s="22" t="n"/>
-      <c r="C158" s="22" t="n"/>
+      <c r="A158" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B158" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C158" s="22" t="inlineStr">
+        <is>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+        </is>
+      </c>
       <c r="D158" s="22" t="n"/>
-      <c r="E158" s="22" t="n"/>
+      <c r="E158" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G158" s="22" t="n"/>
-      <c r="H158" s="16" t="n"/>
+      <c r="H158" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
-      <c r="L158" s="26" t="n"/>
+      <c r="L158" s="26" t="inlineStr">
+        <is>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+        </is>
+      </c>
       <c r="M158" s="26" t="n"/>
       <c r="N158" s="26" t="n"/>
       <c r="O158" s="26" t="n"/>
       <c r="P158" s="26" t="n"/>
     </row>
     <row r="159" ht="16.5" customHeight="1" s="13">
-      <c r="A159" s="22" t="n"/>
-      <c r="B159" s="22" t="n"/>
-      <c r="C159" s="22" t="n"/>
+      <c r="A159" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B159" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C159" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+        </is>
+      </c>
       <c r="D159" s="22" t="n"/>
-      <c r="E159" s="22" t="n"/>
+      <c r="E159" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G159" s="22" t="n"/>
-      <c r="H159" s="16" t="n"/>
+      <c r="H159" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
-      <c r="L159" s="26" t="n"/>
+      <c r="L159" s="26" t="inlineStr">
+        <is>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
+        </is>
+      </c>
       <c r="M159" s="26" t="n"/>
       <c r="N159" s="26" t="n"/>
       <c r="O159" s="26" t="n"/>
       <c r="P159" s="26" t="n"/>
     </row>
     <row r="160" ht="16.5" customHeight="1" s="13">
-      <c r="A160" s="22" t="n"/>
-      <c r="B160" s="22" t="n"/>
-      <c r="C160" s="22" t="n"/>
+      <c r="A160" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B160" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C160" s="22" t="inlineStr">
+        <is>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
+        </is>
+      </c>
       <c r="D160" s="22" t="n"/>
-      <c r="E160" s="22" t="n"/>
+      <c r="E160" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G160" s="22" t="n"/>
-      <c r="H160" s="16" t="n"/>
+      <c r="H160" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
-      <c r="L160" s="26" t="n"/>
+      <c r="L160" s="26" t="inlineStr">
+        <is>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+        </is>
+      </c>
       <c r="M160" s="26" t="n"/>
       <c r="N160" s="26" t="n"/>
       <c r="O160" s="26" t="n"/>
       <c r="P160" s="26" t="n"/>
     </row>
     <row r="161" ht="16.5" customHeight="1" s="13">
-      <c r="A161" s="22" t="n"/>
-      <c r="B161" s="22" t="n"/>
-      <c r="C161" s="22" t="n"/>
+      <c r="A161" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B161" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C161" s="22" t="inlineStr">
+        <is>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+        </is>
+      </c>
       <c r="D161" s="22" t="n"/>
-      <c r="E161" s="22" t="n"/>
+      <c r="E161" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G161" s="22" t="n"/>
-      <c r="H161" s="16" t="n"/>
+      <c r="H161" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
-      <c r="L161" s="26" t="n"/>
+      <c r="L161" s="26" t="inlineStr">
+        <is>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+        </is>
+      </c>
       <c r="M161" s="26" t="n"/>
       <c r="N161" s="26" t="n"/>
       <c r="O161" s="26" t="n"/>
       <c r="P161" s="26" t="n"/>
     </row>
     <row r="162" ht="16.5" customHeight="1" s="13">
-      <c r="A162" s="22" t="n"/>
-      <c r="B162" s="22" t="n"/>
-      <c r="C162" s="22" t="n"/>
+      <c r="A162" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B162" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C162" s="22" t="inlineStr">
+        <is>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+        </is>
+      </c>
       <c r="D162" s="22" t="n"/>
-      <c r="E162" s="22" t="n"/>
+      <c r="E162" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G162" s="22" t="n"/>
-      <c r="H162" s="16" t="n"/>
+      <c r="H162" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
-      <c r="L162" s="26" t="n"/>
+      <c r="L162" s="26" t="inlineStr">
+        <is>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+        </is>
+      </c>
       <c r="M162" s="26" t="n"/>
       <c r="N162" s="26" t="n"/>
       <c r="O162" s="26" t="n"/>
       <c r="P162" s="26" t="n"/>
     </row>
     <row r="163" ht="16.5" customHeight="1" s="13">
-      <c r="A163" s="22" t="n"/>
-      <c r="B163" s="22" t="n"/>
-      <c r="C163" s="22" t="n"/>
+      <c r="A163" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B163" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C163" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+        </is>
+      </c>
       <c r="D163" s="22" t="n"/>
-      <c r="E163" s="22" t="n"/>
+      <c r="E163" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G163" s="22" t="n"/>
-      <c r="H163" s="16" t="n"/>
+      <c r="H163" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+        </is>
+      </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
-      <c r="L163" s="26" t="n"/>
+      <c r="L163" s="26" t="inlineStr">
+        <is>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+        </is>
+      </c>
       <c r="M163" s="26" t="n"/>
       <c r="N163" s="26" t="n"/>
       <c r="O163" s="26" t="n"/>
       <c r="P163" s="26" t="n"/>
     </row>
     <row r="164" ht="16.5" customHeight="1" s="13">
-      <c r="A164" s="22" t="n"/>
-      <c r="B164" s="22" t="n"/>
-      <c r="C164" s="22" t="n"/>
+      <c r="A164" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B164" s="22" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C164" s="22" t="inlineStr">
+        <is>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
+        </is>
+      </c>
       <c r="D164" s="22" t="n"/>
-      <c r="E164" s="22" t="n"/>
+      <c r="E164" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G164" s="22" t="n"/>
-      <c r="H164" s="16" t="n"/>
+      <c r="H164" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+        </is>
+      </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
-      <c r="L164" s="26" t="n"/>
+      <c r="L164" s="26" t="inlineStr">
+        <is>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+        </is>
+      </c>
       <c r="M164" s="26" t="n"/>
       <c r="N164" s="26" t="n"/>
       <c r="O164" s="26" t="n"/>
       <c r="P164" s="26" t="n"/>
     </row>
     <row r="165" ht="16.5" customHeight="1" s="13">
-      <c r="A165" s="22" t="n"/>
-      <c r="B165" s="22" t="n"/>
-      <c r="C165" s="22" t="n"/>
+      <c r="A165" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B165" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C165" s="22" t="inlineStr">
+        <is>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+        </is>
+      </c>
       <c r="D165" s="22" t="n"/>
-      <c r="E165" s="22" t="n"/>
+      <c r="E165" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G165" s="22" t="n"/>
-      <c r="H165" s="16" t="n"/>
+      <c r="H165" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+        </is>
+      </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
-      <c r="L165" s="26" t="n"/>
+      <c r="L165" s="26" t="inlineStr">
+        <is>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+        </is>
+      </c>
       <c r="M165" s="26" t="n"/>
       <c r="N165" s="26" t="n"/>
       <c r="O165" s="26" t="n"/>
       <c r="P165" s="26" t="n"/>
     </row>
     <row r="166" ht="16.5" customHeight="1" s="13">
-      <c r="A166" s="22" t="n"/>
-      <c r="B166" s="22" t="n"/>
-      <c r="C166" s="22" t="n"/>
+      <c r="A166" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B166" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C166" s="22" t="inlineStr">
+        <is>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+        </is>
+      </c>
       <c r="D166" s="22" t="n"/>
-      <c r="E166" s="22" t="n"/>
+      <c r="E166" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G166" s="22" t="n"/>
-      <c r="H166" s="16" t="n"/>
+      <c r="H166" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+        </is>
+      </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
-      <c r="L166" s="26" t="n"/>
+      <c r="L166" s="26" t="inlineStr">
+        <is>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+        </is>
+      </c>
       <c r="M166" s="26" t="n"/>
       <c r="N166" s="26" t="n"/>
       <c r="O166" s="26" t="n"/>
       <c r="P166" s="26" t="n"/>
     </row>
     <row r="167" ht="16.5" customHeight="1" s="13">
-      <c r="A167" s="22" t="n"/>
-      <c r="B167" s="22" t="n"/>
-      <c r="C167" s="22" t="n"/>
+      <c r="A167" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B167" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C167" s="22" t="inlineStr">
+        <is>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+        </is>
+      </c>
       <c r="D167" s="22" t="n"/>
-      <c r="E167" s="22" t="n"/>
+      <c r="E167" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G167" s="22" t="n"/>
-      <c r="H167" s="16" t="n"/>
+      <c r="H167" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
-      <c r="L167" s="26" t="n"/>
+      <c r="L167" s="26" t="inlineStr">
+        <is>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+        </is>
+      </c>
       <c r="M167" s="26" t="n"/>
       <c r="N167" s="26" t="n"/>
       <c r="O167" s="26" t="n"/>
       <c r="P167" s="26" t="n"/>
     </row>
     <row r="168" ht="16.5" customHeight="1" s="13">
-      <c r="A168" s="22" t="n"/>
-      <c r="B168" s="22" t="n"/>
-      <c r="C168" s="22" t="n"/>
+      <c r="A168" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B168" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C168" s="22" t="inlineStr">
+        <is>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+        </is>
+      </c>
       <c r="D168" s="22" t="n"/>
-      <c r="E168" s="22" t="n"/>
+      <c r="E168" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G168" s="22" t="n"/>
-      <c r="H168" s="16" t="n"/>
+      <c r="H168" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
-      <c r="L168" s="26" t="n"/>
+      <c r="L168" s="26" t="inlineStr">
+        <is>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+        </is>
+      </c>
       <c r="M168" s="26" t="n"/>
       <c r="N168" s="26" t="n"/>
       <c r="O168" s="26" t="n"/>
       <c r="P168" s="26" t="n"/>
     </row>
     <row r="169" ht="16.5" customHeight="1" s="13">
-      <c r="A169" s="22" t="n"/>
-      <c r="B169" s="22" t="n"/>
-      <c r="C169" s="22" t="n"/>
+      <c r="A169" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B169" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C169" s="22" t="inlineStr">
+        <is>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+        </is>
+      </c>
       <c r="D169" s="22" t="n"/>
-      <c r="E169" s="22" t="n"/>
+      <c r="E169" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G169" s="22" t="n"/>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
-      <c r="L169" s="26" t="n"/>
+      <c r="L169" s="26" t="inlineStr">
+        <is>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+        </is>
+      </c>
       <c r="M169" s="26" t="n"/>
       <c r="N169" s="26" t="n"/>
       <c r="O169" s="26" t="n"/>
       <c r="P169" s="26" t="n"/>
     </row>
     <row r="170" ht="16.5" customHeight="1" s="13">
-      <c r="A170" s="22" t="n"/>
-      <c r="B170" s="22" t="n"/>
-      <c r="C170" s="22" t="n"/>
+      <c r="A170" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B170" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C170" s="22" t="inlineStr">
+        <is>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+        </is>
+      </c>
       <c r="D170" s="22" t="n"/>
-      <c r="E170" s="22" t="n"/>
+      <c r="E170" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G170" s="22" t="n"/>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
-      <c r="L170" s="26" t="n"/>
+      <c r="L170" s="26" t="inlineStr">
+        <is>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+        </is>
+      </c>
       <c r="M170" s="26" t="n"/>
       <c r="N170" s="26" t="n"/>
       <c r="O170" s="26" t="n"/>
       <c r="P170" s="26" t="n"/>
     </row>
     <row r="171" ht="16.5" customHeight="1" s="13">
-      <c r="A171" s="22" t="n"/>
-      <c r="B171" s="22" t="n"/>
-      <c r="C171" s="22" t="n"/>
+      <c r="A171" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B171" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C171" s="22" t="inlineStr">
+        <is>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+        </is>
+      </c>
       <c r="D171" s="22" t="n"/>
-      <c r="E171" s="22" t="n"/>
+      <c r="E171" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G171" s="22" t="n"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
+        </is>
+      </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
-      <c r="L171" s="26" t="n"/>
+      <c r="L171" s="26" t="inlineStr">
+        <is>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+        </is>
+      </c>
       <c r="M171" s="26" t="n"/>
       <c r="N171" s="26" t="n"/>
       <c r="O171" s="26" t="n"/>
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -8166,7 +11510,31 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="9">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
     <dataValidation sqref="F8:F87" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
@@ -8258,7 +11626,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ID とアクセスの管理</t>
+          <t>アイデンティティとアクセス管理</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -8342,7 +11710,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BC州とDR</t>
+          <t>BC および DR</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -8352,7 +11720,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みであり、それに関連付けられたアクションアイテムはこれ以上ありません。</t>
+          <t>このチェックは検証済みであり、これ以上のアクションアイテムは関連付けられていません。</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -8384,7 +11752,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>推奨事項は理解しているが、現在の要件では必要ではない</t>
+          <t>推奨事項は理解されているが、現在の要件では必要ではない</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">

--- a/spreadsheet/aks_checklist.ja.xlsx
+++ b/spreadsheet/aks_checklist.ja.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Azure AKS Review</t>
+          <t>Azure AKS レビュー</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G8" s="22" t="n"/>
@@ -1130,7 +1130,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>bc14aea6-e65d-48d9-a3ad-c218e6436b06</t>
+          <t>BC14AEA6-E65D-48D9-A3AD-C218E6436B06</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G9" s="22" t="n"/>
@@ -1176,7 +1176,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>36cb45e5-7960-4332-9bdf-8cc23318da61</t>
+          <t>36CB45E5-7960-4332-9BDF-8cc23318da61</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Azure トラフィック マネージャーまたは Azure Front Door をリージョン フェールオーバーのグローバル ロード バランサーとして使用する</t>
+          <t>Azure Traffic Manager または Azure Front Door をリージョン フェールオーバーのグローバル ロード バランサーとして使用する</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G10" s="22" t="n"/>
@@ -1222,7 +1222,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>170265f4-bb46-4a39-9af7-f317284797b1</t>
+          <t>170265F4-BB46-4A39-9AF7-F317284797b1</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョンでサポートされている場合は、可用性ゾーンを使用する</t>
+          <t>Azure リージョンでサポートされている場合は可用性ゾーンを使用する</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G11" s="22" t="n"/>
@@ -1268,7 +1268,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>578a219a-46be-4b54-9350-24922634292b</t>
+          <t>578A219A-46BE-4B54-9350-24922634292B</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>SLA でサポートされている AKS オファリングを使用する</t>
+          <t>SLA でサポートされる AKS オファリングを使用する</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G12" s="22" t="n"/>
@@ -1314,7 +1314,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
+          <t>71D41E36-10cc-457B-9A4B-1410D4395898</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>ポッドとデプロイの定義で中断予算を使用する</t>
+          <t>ポッドとデプロイ定義で中断バジェットを使用する</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G13" s="22" t="n"/>
@@ -1360,7 +1360,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
+          <t>C1288B3C-6A57-4CFC-9444-51E1A3D3453A</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>プライベート・レジストリーを使用する場合は、複数のリージョンにイメージを保管するようにリージョン・レプリケーションを構成します。</t>
+          <t>プライベートレジストリを使用する場合は、複数のリージョンにイメージを格納するようにリージョンレプリケーションを構成します</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G14" s="22" t="n"/>
@@ -1417,7 +1417,7 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス管理</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G15" s="22" t="n"/>
@@ -1463,7 +1463,7 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス管理</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G16" s="22" t="n"/>
@@ -1498,7 +1498,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
+          <t>7E42C78E-78C0-46A6-8A21-94956E698DC4</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1509,7 +1509,7 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス管理</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>管理者kubeconfigへのアクセスを制限する (取得資格情報 --admin)</t>
+          <t>管理者 kubeconfig (資格情報の取得 --admin) へのアクセスを制限する</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G17" s="22" t="n"/>
@@ -1544,7 +1544,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
+          <t>A2FE27B2-E287-401A-8352-BEEDF 79B488D</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1555,7 +1555,7 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス管理</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G18" s="22" t="n"/>
@@ -1590,7 +1590,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
+          <t>EEC4962C-C3BD-421B-B77F-26E5E6B3BEC3</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1601,7 +1601,7 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス管理</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G19" s="22" t="n"/>
@@ -1636,7 +1636,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
+          <t>D4F3537C-1346-4DC5-9027-A71FFE1BD05D</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1647,7 +1647,7 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス管理</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>ワークロードIDにPodアイデンティティを使用する(今日プレビュー中のアドオンv2)</t>
+          <t>POD ID アクセス管理の場合は、Azure AD ワークロード ID (プレビュー) を使用します。</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1668,13 +1668,13 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-identity</t>
+          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1693,34 +1693,34 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>イパム</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>要件に最適な CNI ネットワーク プラグインを選択してください (Azure CNI を推奨)</t>
+          <t>AKS の非対話型ログインの場合は、kubelogin (プレビュー) を使用します。</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1728,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>A0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1739,34 +1739,34 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>イパム</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Azure CNI を使用している場合は、ノードあたりのポッドの最大数を考慮してサブネットのサイズを調整します。</t>
+          <t>AKS ローカル アカウントを無効にする</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1774,7 +1774,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1785,34 +1785,34 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>イパム</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Azure CNI を使用している場合は、ポッド/ノードの最大数を確認します (既定は 30)</t>
+          <t>必要に応じて構成する ジャストインタイムクラスターアクセス</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1820,7 +1820,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
+          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1831,24 +1831,20 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>イパム</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>プライベート IP ロードバランサー サービスを使用する場合は、専用サブネット (AKS サブネットではない) を使用します。</t>
-        </is>
-      </c>
-      <c r="D24" s="22" t="inlineStr">
-        <is>
-          <t>内部アプリの場合、組織はファイアウォールで AKS サブネット全体を開くことがよくあります。これにより、ノードへのネットワーク アクセスも開かれ、場合によってはポッドへのネットワーク アクセスも開かれます (Azure CNI を使用している場合)。LoadBalancer IP が別のサブネットにある場合は、この IP のみがアプリ クライアントで使用できるようにする必要があります。もう 1 つの理由は、AKS サブネット内の IP アドレスが希少なリソースである場合、サービス用にその IP アドレスを消費すると、クラスターの最大スケーラビリティが低下するためです。</t>
-        </is>
-      </c>
+          <t>必要に応じて、AKS の AAD 条件付きアクセスを構成する</t>
+        </is>
+      </c>
+      <c r="D24" s="22" t="n"/>
       <c r="E24" s="22" t="inlineStr">
         <is>
           <t>低い</t>
@@ -1856,13 +1852,13 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/internal-lb</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1870,7 +1866,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1881,34 +1877,34 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>イパム</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>それに応じてサービス IP アドレス範囲のサイズを設定します (クラスターのスケーラビリティが制限されます)。</t>
+          <t>Windows AKS ワークロードに必要な場合は、gMSA を構成します。</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1916,7 +1912,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1927,34 +1923,34 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ要件で義務付けられている場合は、AzFW/NVA で出力トラフィックをフィルタリングします。</t>
+          <t>より細かく制御するには、マネージドKubeletアイデンティティの使用を検討してください</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/limit-egress-traffic</t>
+          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -1962,7 +1958,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1978,36 +1974,36 @@
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>パブリック API エンドポイントを使用している場合は、そのエンドポイントにアクセスできる IP アドレスを制限します。</t>
+          <t>要件に最適な CNI ネットワーク プラグインを選択する (Azure CNI を推奨)</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>A0F61565-9DE5-458F-A372-49C831112DBD</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2023,36 +2019,36 @@
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>拡張性</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>LoadBalancer タイプのサービスで公開するのではなく、入力コントローラーを使用して Web ベースのアプリを公開する</t>
+          <t>Azure CNI を使用している場合は、ノードあたりのポッドの最大数を考慮して、それに応じてサブネットのサイズを設定します</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-network</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2068,36 +2064,36 @@
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>ベスト・プラクティス</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>AGIC を使用している場合は、クラスター間で AppGW を共有しないでください。</t>
+          <t>Azure CNI を使用している場合は、最大ポッド/ノード数 (既定値は 30) を確認します。</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>CBD8AC2A-AEBC-4A2A-94Da-1DBF3DC99248</t>
+          <t>22F54B29 - バーデ - 43AA - B1E8 - C38EC9366673</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2113,36 +2109,40 @@
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>プライベートエンドポイント (推奨) または仮想ネットワークサービスエンドポイントを使用して、クラスターから PaaS サービスにアクセスする</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="n"/>
+          <t>プライベート IP ロードバランサー サービスを使用する場合は、(AKS サブネットではなく) 専用サブネットを使用します。</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="inlineStr">
+        <is>
+          <t>内部アプリの場合、組織は多くの場合、ファイアウォールで AKS サブネット全体を開きます。これにより、ノードへのネットワーク アクセスも開かれ、ポッドへのネットワーク アクセスも可能になる可能性があります (Azure CNI を使用している場合)。LoadBalancer IP が別のサブネットにある場合は、この IP のみをアプリ クライアントで使用できる必要があります。別の理由は、AKS サブネット内の IP アドレスが不足しているリソースである場合、その IP アドレスをサービスに使用すると、クラスターの最大スケーラビリティが低下することです。</t>
+        </is>
+      </c>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/private-link/private-link-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/internal-lb</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>要件で必須の場合はプライベートクラスターを使用します。</t>
+          <t>それに応じてサービスのIPアドレス範囲のサイズを設定します(クラスターのスケーラビリティが制限されます)</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2174,20 +2174,20 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/private-clusters</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>43F63047-22D9-429C-8B1C-D622F54B29BA</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Kubernetes ネットワーク ポリシー オプションを有効にする (Calico/Azure)</t>
+          <t>AzFW/NVA を使用してエグレス トラフィックをフィルター処理します (セキュリティ要件で義務付けられている場合)</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2219,13 +2219,13 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-network-policies</t>
+          <t>https://docs.microsoft.com/azure/aks/limit-egress-traffic</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2233,7 +2233,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>3B365A91-7ECB-4E48-BBE5-4CD7DF2E8BBA</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2254,24 +2254,24 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Kubernetes ネットワーク ポリシーを使用してクラスター内のセキュリティを強化する</t>
+          <t>パブリック API エンドポイントを使用している場合は、アクセスできる IP アドレスを制限する</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
       <c r="E33" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://docs.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2279,7 +2279,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>C4581559-BB91-463E-A908-AED8C44CE3B2</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2295,29 +2295,29 @@
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Web ワークロード (UI または API) に WAF を使用する</t>
+          <t>イングレス コントローラーを使用して、LoadBalancer タイプのサービスで公開する代わりに Web ベースのアプリを公開する</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://docs.microsoft.com/azure/aks/concepts-network</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2325,7 +2325,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>B3808B9F-A1CF-4204-AD01-3A923CE474DB</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2341,29 +2341,29 @@
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>AKS 仮想ネットワークでの DDoS 標準の使用</t>
+          <t>Azue NAT ゲートウェイをアウトバウンドタイプとして使用して、エグレス トラフィックをスケーリングする</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2371,7 +2371,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>B3808B9F-A1CF-4204-AD01-3A923CE474DB</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2387,29 +2387,29 @@
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>ベスト・プラクティス</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>AKS アプリケーション ルーティング アドオンを使用しないでください</t>
+          <t>Azure CNI IP の枯渇を回避するために IP の動的割り当てを使用する</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/http-application-routing</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2417,7 +2417,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>B3808B9F-A1CF-4204-AD01-3A923CE474DB</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2433,29 +2433,29 @@
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>ベスト・プラクティス</t>
+          <t>おすすめの方法</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>標準のALBを使用する(基本的なALBとは対照的に)</t>
+          <t>AGIC を使用している場合は、クラスタ間で AppGW を共有しないでください。</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
       <c r="E37" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
         </is>
       </c>
       <c r="I37" s="16" t="n"/>
@@ -2463,7 +2463,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>CBD8AC2A-AEBC-4A2A-94Da-1DBF3DC99248</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2479,12 +2479,12 @@
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>は</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド接続が必要な場合は、2xER または ER+VPN を使用して可用性を向上させます。</t>
+          <t>プライベート エンドポイント (推奨) または仮想ネットワーク サービス エンドポイントを使用してクラスターから PaaS サービスにアクセスする</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2495,13 +2495,13 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+          <t>https://docs.microsoft.com/azure/private-link/private-link-overview</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2509,7 +2509,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
+          <t>C3C39C98-6BB2-4C12-859A-114B5E3DF584</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2530,24 +2530,24 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>高度なマイクロサービス通信管理にサービス メッシュの使用を検討する</t>
+          <t>要件で義務付けられている場合は、プライベートクラスターを使用する</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/servicemesh-about</t>
+          <t>https://docs.microsoft.com/azure/aks/private-clusters</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2555,7 +2555,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>ECCCD979-3B6B-4CDA-9B50-EB2EB03DDA6D</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2566,17 +2566,17 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>CSI シークレット ストア ドライバーを使用して Azure Key Vault にシークレットを格納する</t>
+          <t>Windows 2019 および 2022 AKS ノードの場合、Calico ネットワーク ポリシーを使用できます</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2587,13 +2587,13 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
+          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2601,7 +2601,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>ECCCD979-3B6B-4CDA-9B50-EB2EB03DDA6D</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2612,17 +2612,17 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>クラスターのユーザー サービス プリンシパルの場合は、資格情報を定期的に (四半期ごとなど) 更新します。</t>
+          <t>Kubernetes ネットワーク ポリシー オプションを有効にする (Calico/Azure)</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2633,13 +2633,13 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/update-credentials</t>
+          <t>https://docs.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2647,7 +2647,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2658,34 +2658,34 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy for Kubernetes を使用してクラスターのコンプライアンスを確保する</t>
+          <t>Kubernetes ネットワーク ポリシーを使用してクラスター内のセキュリティを強化する</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
       <c r="E42" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2693,7 +2693,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2704,34 +2704,34 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>ユーザー/システム・ノードプールによるコントロール・プレーンからのアプリケーションの分離</t>
+          <t>Web ワークロード (UI または API) に WAF を使用する</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2739,7 +2739,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>A3A92C2D-E7E2-4165-A3A8-7AF4A7A1F893</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2750,34 +2750,34 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>システムノードプールにtaintを追加して専用にする</t>
+          <t>AKS 仮想ネットワークで DDoS 標準を使用する</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
       <c r="E44" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2785,7 +2785,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>9BDA4776-8F24-4C11-9775-C2EA55B46A94</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2796,41 +2796,41 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>イメージにプライベート レジストリを使用する (ACR など)</t>
+          <t>必要に応じて、会社の HTTP プロキシを追加します。</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
       <c r="E45" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/container-registry/</t>
+          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>9BDA4776-8F24-4C11-9775-C2EA55B46A94</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2841,34 +2841,34 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>おすすめの方法</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>脆弱性がないか画像をスキャンする</t>
+          <t>AKS アプリケーション ルーティング アドオンを使用しない</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
       <c r="E46" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
+          <t>https://docs.microsoft.com/azure/aks/http-application-routing</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -2876,7 +2876,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>8008AE7D-7E4B-4475-A6C8-BDBF59BCE65D</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2887,17 +2887,17 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>おすすめの方法</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Azure セキュリティ センターを使用してセキュリティ体制の脆弱性を検出する</t>
+          <t>Windows ワークロードの場合は、高速ネットワークを使用する</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -2908,13 +2908,13 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -2922,7 +2922,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>8008AE7D-7E4B-4475-A6C8-BDBF59BCE65D</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2933,17 +2933,17 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>おすすめの方法</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>アプリの分離要件の定義 (名前空間/ノードプール/クラスター)</t>
+          <t>標準のALBを使用します(基本的なALBとは対照的に)</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -2954,20 +2954,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
+          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>BA7DA7BE-9952-4914-A384-5D997CB39132</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -2978,41 +2978,41 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>コストガバナンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>は</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>kubecost などの外部アプリケーションを使用して、カストを異なるユーザーに割り当てます。</t>
+          <t>ハイブリッド接続が必要な場合は、2xER または ER+VPN を使用して可用性を向上させます</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/scenarios/aks/eslz-cost-governance-with-kubecost</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>E8A03F97-8794-468D-96A7-86D60F96C97B</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3023,34 +3023,34 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>一時的な OS ディスクを使用する</t>
+          <t>高度なマイクロサービス通信管理にサービスメッシュを使用することを検討する</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
       <c r="E50" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://docs.microsoft.com/azure/aks/servicemesh-about</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3058,7 +3058,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3069,34 +3069,34 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
+          <t>ネットワーク トポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B51" s="22" t="inlineStr">
+        <is>
           <t>オペレーションズ</t>
         </is>
       </c>
-      <c r="B51" s="22" t="inlineStr">
-        <is>
-          <t>貯蔵</t>
-        </is>
-      </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>非一時ディスクの場合、複数のポッドを実行するには高いパフォーマンスが必要であり、既定の AKS ログ回転しきい値で巨大なログを生成するため、多くのポッド/ノードを実行するときは、ノードに高い IOPS とより大きな OS ディスクを使用します。</t>
+          <t>必要に応じて、独自のCNIプラグインを追加します</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3104,7 +3104,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc - 3cd2 - 45bf - a707 - 6e9eab4bed32</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3115,34 +3115,34 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
+          <t>ネットワーク トポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B52" s="22" t="inlineStr">
+        <is>
           <t>オペレーションズ</t>
         </is>
       </c>
-      <c r="B52" s="22" t="inlineStr">
-        <is>
-          <t>貯蔵</t>
-        </is>
-      </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>クラスター内に状態を保持しないようにし、データを外部 (AzStorage、AzSQL、Cosmos など) に格納する</t>
+          <t>必要に応じて、AKS でノードごとにパブリック IP を構成します</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3150,7 +3150,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3161,17 +3161,17 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>おすすめの方法</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>AzFiles Standard を使用している場合は、パフォーマンス上の理由から AzFiles Premium および/または ANF を検討してください。</t>
+          <t>Azure CNI を使用している場合は、ノードプールに異なるサブネットを使用することを検討してください</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3182,20 +3182,20 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-storage</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3206,17 +3206,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Azure ディスクと AZ を使用している場合は、VolumeBindingMode:WaitForFirstConsumer を使用して LRS ディスクのゾーン内にノードプールを用意して、適切なゾーンにストレージをプロビジョニングするか、複数のゾーンにまたがるノードプールに ZRS ディスクを使用することを検討してください。</t>
+          <t>CSI シークレット ストア ドライバーを使用して Azure Key Vault にシークレットを格納する</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3227,13 +3227,13 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
+          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3241,7 +3241,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3252,41 +3252,41 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Azure アドバイザーでクラスターに関する推奨事項を定期的に確認する</t>
+          <t>クラスターのユーザー サービス プリンシパルの場合は、資格情報を定期的に更新します (四半期ごとなど)。</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/advisor/advisor-get-started</t>
+          <t>https://docs.microsoft.com/azure/aks/update-credentials</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
+          <t>B03DDA6D-58D7-4C89-8DDB-107D5769AE66</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3297,7 +3297,7 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
@@ -3307,31 +3307,31 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>vscode+kubeadvisorなどのインテリジェントなテキストエディタでYAMLマニフェストを開発する</t>
+          <t>Azure Policy for Kubernetes を使用してクラスターのコンプライアンスを確保する</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
       <c r="E56" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
+          <t>9CA48E4A-85E2-4223-BCE8-BB12307CA5F1</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3342,41 +3342,41 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>コンテナーインサイト(またはPrometheusなどの他のツール)でクラスターメトリックを監視する</t>
+          <t>ユーザー/システムノードプールによるコントロールプレーンからのアプリケーションの分離</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
       <c r="E57" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>6F158E3E-A3A9-42C2-BE7E-2165C3A87AF4</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3387,41 +3387,41 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>クラスターログをコンテナインサイト(またはTelegraf/ElasticSearchなどの他のツール)で保存および分析します。</t>
+          <t>システムノードプールにtaintを追加して専用にする</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>A7A1F893-9BDA-4477-98F2-4C116775C2EA</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3432,41 +3432,41 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>警告</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>最も重要なメトリックでアラートを構成する (推奨事項については、「コンテナー インサイト」を参照してください)。</t>
+          <t>イメージにプライベート レジストリ (ACR など) を使用する</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
+          <t>https://docs.microsoft.com/azure/container-registry/</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>55B46A94-8008-4AE7-B7E4-B475B6C8BDBF</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3477,7 +3477,7 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
@@ -3487,31 +3487,31 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>kubernetes バージョンを定期的に (四半期ごとなど) アップグレードするプロセスを定期的に用意するか、AKS 自動アップグレード機能を使用する</t>
+          <t>イメージの脆弱性をスキャンする</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
       <c r="E60" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/supported-kubernetes-versions</t>
+          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>59BCE65D-E8A0-43F9-9879-468D66A786D6</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3522,7 +3522,7 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
@@ -3532,31 +3532,31 @@
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>ノードイメージアップグレードを使用していない場合に備えて、Linuxノードアップグレードにkuredを使用する</t>
+          <t>Azure セキュリティ センターを使用してセキュリティ体制の脆弱性を検出する</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/node-updates-kured</t>
+          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3567,7 +3567,7 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
@@ -3577,31 +3577,31 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>クラスター・ノード・イメージを定期的に (例えば毎週) アップグレードする定期的なプロセスがある</t>
+          <t>必要に応じて FIPS を設定する</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
       <c r="E62" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/node-image-upgrade</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3612,34 +3612,34 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>gitops を検討して、アプリケーションまたはクラスター構成を複数のクラスターにデプロイする</t>
+          <t>必要に応じて、キー管理サービス etcd 暗号化を追加します。</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
+          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3647,7 +3647,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3658,17 +3658,17 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>時間に敏感でないワークロードのスポットノードプールを検討する</t>
+          <t>必要に応じて、AKS のコンフィデンシャル コンピューティングの使用を検討する</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3679,13 +3679,13 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/spot-node-pool</t>
+          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3693,7 +3693,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3704,34 +3704,34 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>迅速なバーストのためにAKS仮想ノードを検討する</t>
+          <t>コンテナーに Defender を使用することを検討してください</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3739,7 +3739,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3750,7 +3750,7 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>ノードRG(別名「インフラRG」)内のオペレータによって変更が実行されないように、独自のガバナンスプラクティスを開発します。</t>
+          <t>アプリの分離要件 (名前空間/ノードプール/クラスター) を定義する</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3771,20 +3771,20 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/faq</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>D167DD18-2B0A-4C24-8B99-9A646F8389A7</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3795,17 +3795,17 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>コストガバナンス</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>カスタムノードRG(別名「インフラRG」)名を使用する</t>
+          <t>kubecost などの外部アプリケーションを使用して、さまざまなユーザーに cust を割り当てる</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3816,13 +3816,13 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/scenarios/aks/eslz-cost-governance-with-kubecost</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3830,7 +3830,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3841,34 +3841,34 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>コストガバナンス</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>非推奨の Kubernetes API を YAML マニフェストで使用しないでください。</t>
+          <t>必要に応じて、ノードプールスナップショットをスケーリングします</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://kubernetes.io/docs/setup/release/notes/</t>
+          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3876,7 +3876,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3887,17 +3887,17 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>コストガバナンス</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>汚染ウィンドウノード</t>
+          <t>スケールダウンモードを使用してノードを削除/割り当て解除する</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -3908,13 +3908,13 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
+          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3922,7 +3922,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3933,34 +3933,34 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>コストガバナンス</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Windowsコンテナのパッチレベルをホストのパッチレベルと同期させる</t>
+          <t>必要に応じて、AKS クラスターでマルチインスタンス分割 GPU を使用する</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
       <c r="E70" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
+          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -3968,7 +3968,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -3979,34 +3979,34 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>コストガバナンス</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>ノードのCPUとメモリの使用率を監視する</t>
+          <t>開発/テスト クラスターを実行している場合は、ノードプールの開始/停止を使用します</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/containers/container-insights-analyze</t>
+          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4014,7 +4014,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
+          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4030,29 +4030,29 @@
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Azure CNI を使用している場合は、ノードごとに消費されるポッド IP の割合を監視します。</t>
+          <t>エフェメラル OS ディスクを使用する</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
       <c r="E72" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4060,7 +4060,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
+          <t>24367B33-6971-45B1-952B-EEE0B9B588DE</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4076,33 +4076,29 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>ノード内の OS ディスク・キューの深さのモニター</t>
-        </is>
-      </c>
-      <c r="D73" s="22" t="inlineStr">
-        <is>
-          <t>OS ディスクの I/O は重要なリソースです。ノード内の OS が I/O で調整されると、予期しない動作が発生する可能性があり、通常はノードが NotReady と宣言されることになります。</t>
-        </is>
-      </c>
+          <t>非エフェメラル ディスクの場合、複数のポッドを実行するために高いパフォーマンスが必要であり、既定の AKS ログ ローテーションしきい値で巨大なログが生成されるため、多くのポッド/ノードを実行する場合は、ノードに高い IOPS とより大きな OS ディスクを使用します。</t>
+        </is>
+      </c>
+      <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/premium-storage-performance</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4110,7 +4106,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
+          <t>FC4972cc-3CD2-45BF-A707-6E9EAB4ベッド32</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4126,29 +4122,29 @@
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>AzFW/NVA で出力フィルタリングを使用しない場合は、標準の ALB 割り当て SNAT ポートを監視します。</t>
+          <t>ハイパー パフォーマンス ストレージ オプションの場合は、AKS で Ultra ディスクを使用します</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4156,7 +4152,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
+          <t>FC4972cc-3CD2-45BF-A707-6E9EAB4ベッド32</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4172,12 +4168,12 @@
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>AKS クラスターのリソース正常性通知をサブスクライブする</t>
+          <t>クラスターに状態を保持することは避け、データを外部 (AzStorage、AzSQL、Cosmos など) に格納します。</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4188,13 +4184,13 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/aks-resource-health</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4202,7 +4198,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
+          <t>9F7547C1-747D-4C56-868A-714435BD19DD</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4218,33 +4214,29 @@
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>マスター ログ (別名 API ログ) を Azure Monitor またはお好みのログ管理ソリューションに送信する</t>
-        </is>
-      </c>
-      <c r="D76" s="22" t="inlineStr">
-        <is>
-          <t>クラスタレベルの診断設定経由</t>
-        </is>
-      </c>
+          <t>AzFiles Standard を使用する場合は、パフォーマンス上の理由から AzFiles Premium や ANF を検討してください。</t>
+        </is>
+      </c>
+      <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/monitor-aks</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-storage</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4252,7 +4244,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4268,12 +4260,12 @@
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>拡張性</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>クラスター オートスケーラーの使用</t>
+          <t>Azure ディスクと AZ を使用する場合は、適切なゾーンにストレージをプロビジョニングするために VolumeBindingMode:WaitForFirstConsumer を使用して LRS ディスクのゾーン内にノードプールを配置するか、複数のゾーンにまたがるノードプールに ZRS ディスクを使用することを検討してください。</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4284,13 +4276,13 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://docs.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4298,7 +4290,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>83958A8C-2689-4B32-AB57-CFC64546135A</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4314,29 +4306,29 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>拡張性</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて水平ポッドオートスケーラを使用する</t>
+          <t>Azure アドバイザーでクラスターに関する推奨事項を定期的に確認する</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://docs.microsoft.com/azure/advisor/advisor-get-started</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4344,7 +4336,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4360,33 +4352,29 @@
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>拡張性</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>大きすぎたり小さすぎたりしない適切なノードサイズを検討する</t>
-        </is>
-      </c>
-      <c r="D79" s="22" t="inlineStr">
-        <is>
-          <t>ノードが大きいほど、パフォーマンスが向上し、一時的なディスクや高速ネットワークなどの機能がもたらされますが、爆発半径が大きくなり、スケーリングの粒度が低下します。</t>
-        </is>
-      </c>
+          <t>VSCODE + kubeadvisorなどのインテリジェントなテキストエディタを使用してYAMLマニフェストを開発します</t>
+        </is>
+      </c>
+      <c r="D79" s="22" t="n"/>
       <c r="E79" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4394,7 +4382,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4410,29 +4398,29 @@
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>リソース</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>ポッド仕様で要求と制限を構成する</t>
+          <t>AKS の自動証明書のローテーションを有効にする</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
       <c r="E80" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/aks/certificate-rotation</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4440,7 +4428,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4456,29 +4444,29 @@
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>リソース</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>名前空間のリソースクォータの適用</t>
+          <t>コンテナインサイト(またはPrometheusなどの他のツール)を使用してクラスターメトリクスを監視する</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
       <c r="E81" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4486,7 +4474,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>6F8389A7-F82C-4B8E-A8C0-AA63A25A4956</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4502,12 +4490,12 @@
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>リソース</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプションにノードプールをスケールアウトするのに十分なクォータがあることを確認する</t>
+          <t>Container Insights (または Telegraf/ElasticSearch などの他のツール) を使用してクラスター ログを保存および分析します。</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4518,13 +4506,13 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4532,7 +4520,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4543,34 +4531,34 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションの展開</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>コードとしてのインフラストラクチャ</t>
+          <t>警告</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>ARM/TF による自動化を使用して Azure リソースを作成する</t>
+          <t>最も重要なメトリックに関するアラートを構成します (推奨事項については、「コンテナーの分析情報」を参照してください)</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
       <c r="E83" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/developer/terraform/create-k8s-cluster-with-tf-and-aks</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4578,7 +4566,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>3acbe04b-be20-49d3-afda-47778424d116</t>
+          <t>67F7a9ED-5B31-4F38-A3F3-9812B2463CFF</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4589,34 +4577,34 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションの展開</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>発達</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>カナリアまたは青/緑の展開を使用する</t>
+          <t>Kubernetes バージョンを定期的に (四半期ごとなど) アップグレードするか、AKS 自動アップグレード機能を使用する定期的なプロセスを用意する</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
       <c r="E84" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/containers/aks/secure-baseline-aks</t>
+          <t>https://docs.microsoft.com/azure/aks/supported-kubernetes-versions</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4624,7 +4612,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4635,34 +4623,34 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションの展開</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>発達</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>イベント駆動型ワークロードを実行する場合は、KEDA を使用します。</t>
+          <t>ノード イメージのアップグレードを使用していない場合は、Linux ノードのアップグレードに kured を使用します。</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
       <c r="E85" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-functions/functions-kubernetes-keda</t>
+          <t>https://docs.microsoft.com/azure/aks/node-updates-kured</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4670,7 +4658,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>A280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
+          <t>6F7C4C0D-4E51-4464-AD24-57ED67138B82</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4681,34 +4669,34 @@
     <row r="86" ht="16.5" customHeight="1" s="13">
       <c r="A86" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションの展開</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>発達</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Dapr を使用してマイクロサービス開発を容易にする</t>
+          <t>クラスタノードイメージを定期的に(毎週など)アップグレードする定期的なプロセスを用意する</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://dapr.io/</t>
+          <t>https://docs.microsoft.com/azure/aks/node-image-upgrade</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4716,7 +4704,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
+          <t>139C9580-ADE3-426A-BA09-CF157D9F6477</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4727,46 +4715,42 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
+          <t>アプリケーションまたはクラスター構成を複数のクラスターにデプロイするための gitops を検討する</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="n"/>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4777,46 +4761,42 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
+          <t>プライベート クラスターでの AKS コマンド呼び出しの使用を検討する</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I88" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="n"/>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4827,46 +4807,42 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>時間的制約のないワークロードのスポットノードプールを検討する</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I89" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/spot-node-pool</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="n"/>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>C5A5B252-1E44-4A59-A9D2-399C4D7B68D0</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4877,46 +4853,42 @@
     <row r="90" ht="16.5" customHeight="1" s="13">
       <c r="A90" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
+          <t>迅速なバーストのために AKS 仮想ノードを検討する</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
       <c r="E90" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I90" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+        </is>
+      </c>
+      <c r="I90" s="16" t="n"/>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>C755562F-2B4E-4456-9B4D-874A748B662E</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4927,46 +4899,42 @@
     <row r="91" ht="16.5" customHeight="1" s="13">
       <c r="A91" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>計画されたイベントの場合は、ノード自動ドレインの使用を検討してください</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
       <c r="E91" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I91" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
+        </is>
+      </c>
+      <c r="I91" s="16" t="n"/>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4977,46 +4945,42 @@
     <row r="92" ht="16.5" customHeight="1" s="13">
       <c r="A92" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>独自のガバナンスプラクティスを開発して、ノードRG(別名「インフラRG」)のオペレーターによって変更が実行されないようにします。</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I92" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/faq</t>
+        </is>
+      </c>
+      <c r="I92" s="16" t="n"/>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5027,46 +4991,42 @@
     <row r="93" ht="16.5" customHeight="1" s="13">
       <c r="A93" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>カスタムノードRG(別名「インフラRG」)名を使用する</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
       <c r="E93" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I93" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+        </is>
+      </c>
+      <c r="I93" s="16" t="n"/>
       <c r="J93" s="23" t="n"/>
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>73B32A5A-67F7-4A9E-B5B3-1F38C3F39812</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5077,46 +5037,42 @@
     <row r="94" ht="16.5" customHeight="1" s="13">
       <c r="A94" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>非推奨の Kubernetes API を YAML マニフェストで使用しないでください</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
       <c r="E94" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
-        </is>
-      </c>
-      <c r="I94" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://kubernetes.io/docs/setup/release/notes/</t>
+        </is>
+      </c>
+      <c r="I94" s="16" t="n"/>
       <c r="J94" s="23" t="n"/>
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>B2463CFF-E189-4C59-ADF0-D5A73DD4CE32</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5127,46 +5083,42 @@
     <row r="95" ht="16.5" customHeight="1" s="13">
       <c r="A95" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>ウィンドウ ノードを汚染する</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
       <c r="E95" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I95" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
+        </is>
+      </c>
+      <c r="I95" s="16" t="n"/>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>C1881370-6F7C-44C0-B4E5-14648D2457ed</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5177,46 +5129,42 @@
     <row r="96" ht="16.5" customHeight="1" s="13">
       <c r="A96" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>Windowsコンテナのパッチレベルをホストパッチレベルと同期させる</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I96" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
+        </is>
+      </c>
+      <c r="I96" s="16" t="n"/>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5227,46 +5175,42 @@
     <row r="97" ht="16.5" customHeight="1" s="13">
       <c r="A97" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
+          <t>ノードの CPU とメモリの使用率を監視する</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
       <c r="E97" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
-        </is>
-      </c>
-      <c r="I97" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/containers/container-insights-analyze</t>
+        </is>
+      </c>
+      <c r="I97" s="16" t="n"/>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5277,46 +5221,42 @@
     <row r="98" ht="16.5" customHeight="1" s="13">
       <c r="A98" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>Azure CNI を使用している場合は、ノードごとに消費されるポッド IP の割合を監視する</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
       <c r="E98" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I98" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+        </is>
+      </c>
+      <c r="I98" s="16" t="n"/>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>1A4835AC-9422-423E-AE80-B123081A5417</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5327,46 +5267,46 @@
     <row r="99" ht="16.5" customHeight="1" s="13">
       <c r="A99" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
-        </is>
-      </c>
-      <c r="D99" s="22" t="n"/>
+          <t>ノード内の OS ディスク キューの深さを監視する</t>
+        </is>
+      </c>
+      <c r="D99" s="22" t="inlineStr">
+        <is>
+          <t>OS ディスク内の I/O は重要なリソースです。ノード内の OS が I/O で調整されると、予期しない動作が発生する可能性があり、通常はノードが NotReady と宣言されることになります。</t>
+        </is>
+      </c>
       <c r="E99" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I99" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-machines/premium-storage-performance</t>
+        </is>
+      </c>
+      <c r="I99" s="16" t="n"/>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5377,46 +5317,42 @@
     <row r="100" ht="16.5" customHeight="1" s="13">
       <c r="A100" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+          <t>AzFW/NVA でエグレス フィルタリングを使用していない場合は、標準の ALB 割り当て SNAT ポートを監視します。</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
       <c r="E100" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I100" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
+        </is>
+      </c>
+      <c r="I100" s="16" t="n"/>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>BE209D39-FDA4-4777-A424-D116785C2FA5</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5427,46 +5363,42 @@
     <row r="101" ht="16.5" customHeight="1" s="13">
       <c r="A101" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+          <t>AKS クラスターのリソース正常性通知をサブスクライブする</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
       <c r="E101" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I101" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/aks-resource-health</t>
+        </is>
+      </c>
+      <c r="I101" s="16" t="n"/>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>74C2EE76-569B-4A79-A57E-DEDF91B022C9</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5477,46 +5409,46 @@
     <row r="102" ht="16.5" customHeight="1" s="13">
       <c r="A102" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
-        </is>
-      </c>
-      <c r="D102" s="22" t="n"/>
+          <t>マスター ログ (API ログ) を Azure Monitor または任意のログ管理ソリューションに送信する</t>
+        </is>
+      </c>
+      <c r="D102" s="22" t="inlineStr">
+        <is>
+          <t>クラスター レベルでの診断設定経由</t>
+        </is>
+      </c>
       <c r="E102" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I102" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/monitor-aks</t>
+        </is>
+      </c>
+      <c r="I102" s="16" t="n"/>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>5B56AD48-408F-4E72-934C-476BA280DCF5</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5527,46 +5459,42 @@
     <row r="103" ht="16.5" customHeight="1" s="13">
       <c r="A103" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+          <t>クラスター オートスケーラーを使用する</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
       <c r="E103" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I103" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+        </is>
+      </c>
+      <c r="I103" s="16" t="n"/>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>90CE65DE-8E13-4F9C-ABD4-69266ABCA264</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5577,46 +5505,42 @@
     <row r="104" ht="16.5" customHeight="1" s="13">
       <c r="A104" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>AKS ノード プールのノード構成をカスタマイズする</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
       <c r="E104" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I104" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
+        </is>
+      </c>
+      <c r="I104" s="16" t="n"/>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>90CE65DE-8E13-4F9C-ABD4-69266ABCA264</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5627,46 +5551,42 @@
     <row r="105" ht="16.5" customHeight="1" s="13">
       <c r="A105" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>必要に応じてポッド水平オートスケーラーを使用する</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I105" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+        </is>
+      </c>
+      <c r="I105" s="16" t="n"/>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>FAA19BFE-9D55-4D04-A3C4-919CA1B2D121</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5677,46 +5597,46 @@
     <row r="106" ht="16.5" customHeight="1" s="13">
       <c r="A106" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
-        </is>
-      </c>
-      <c r="D106" s="22" t="n"/>
+          <t>大きすぎたり小さすぎたりしない適切なノードサイズを検討する</t>
+        </is>
+      </c>
+      <c r="D106" s="22" t="inlineStr">
+        <is>
+          <t>ノードが大きいほど、エフェメラルディスクや高速ネットワークなどのパフォーマンスと機能が向上しますが、爆発半径が大きくなり、スケーリングの粒度が低下します。</t>
+        </is>
+      </c>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I106" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
+        </is>
+      </c>
+      <c r="I106" s="16" t="n"/>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5727,46 +5647,46 @@
     <row r="107" ht="16.5" customHeight="1" s="13">
       <c r="A107" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
-        </is>
-      </c>
-      <c r="D107" s="22" t="n"/>
+          <t>スケーラビリティが必要な場合は、5000 を超えるノードを追加することを検討してください</t>
+        </is>
+      </c>
+      <c r="D107" s="22" t="inlineStr">
+        <is>
+          <t>ノードが大きいほど、エフェメラルディスクや高速ネットワークなどのパフォーマンスと機能が向上しますが、爆発半径が大きくなり、スケーリングの粒度が低下します。</t>
+        </is>
+      </c>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I107" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
+        </is>
+      </c>
+      <c r="I107" s="16" t="n"/>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5777,46 +5697,46 @@
     <row r="108" ht="16.5" customHeight="1" s="13">
       <c r="A108" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
-        </is>
-      </c>
-      <c r="D108" s="22" t="n"/>
+          <t>AKS オートメーションのためにイベント グリッド イベントをサブスクライブすることを検討する</t>
+        </is>
+      </c>
+      <c r="D108" s="22" t="inlineStr">
+        <is>
+          <t>ノードが大きいほど、エフェメラルディスクや高速ネットワークなどのパフォーマンスと機能が向上しますが、爆発半径が大きくなり、スケーリングの粒度が低下します。</t>
+        </is>
+      </c>
       <c r="E108" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I108" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
+        </is>
+      </c>
+      <c r="I108" s="16" t="n"/>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5827,46 +5747,46 @@
     <row r="109" ht="16.5" customHeight="1" s="13">
       <c r="A109" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
-        </is>
-      </c>
-      <c r="D109" s="22" t="n"/>
+          <t>AKS クラスターで長時間実行される操作の場合は、イベントの終了を検討する</t>
+        </is>
+      </c>
+      <c r="D109" s="22" t="inlineStr">
+        <is>
+          <t>ノードが大きいほど、エフェメラルディスクや高速ネットワークなどのパフォーマンスと機能が向上しますが、爆発半径が大きくなり、スケーリングの粒度が低下します。</t>
+        </is>
+      </c>
       <c r="E109" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="n"/>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5877,46 +5797,46 @@
     <row r="110" ht="16.5" customHeight="1" s="13">
       <c r="A110" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
-        </is>
-      </c>
-      <c r="D110" s="22" t="n"/>
+          <t>必要に応じて、AKS ノードに Azure 専用ホストの使用を検討する</t>
+        </is>
+      </c>
+      <c r="D110" s="22" t="inlineStr">
+        <is>
+          <t>ノードが大きいほど、エフェメラルディスクや高速ネットワークなどのパフォーマンスと機能が向上しますが、爆発半径が大きくなり、スケーリングの粒度が低下します。</t>
+        </is>
+      </c>
       <c r="E110" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I110" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
+        </is>
+      </c>
+      <c r="I110" s="16" t="n"/>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5927,46 +5847,41 @@
     <row r="111" ht="16.5" customHeight="1" s="13">
       <c r="A111" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>リソース</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>ポッド仕様で要求と制限を構成する</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>B54EB2EB-03DD-4AA3-9927-18E2EDB11726</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5977,46 +5892,42 @@
     <row r="112" ht="16.5" customHeight="1" s="13">
       <c r="A112" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>リソース</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>名前空間のリソース クォータを適用する</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
       <c r="E112" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="n"/>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>769EF669-1A48-435A-A942-223ECE80B123</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6027,46 +5938,42 @@
     <row r="113" ht="16.5" customHeight="1" s="13">
       <c r="A113" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>リソース</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>サブスクリプションにノードプールをスケールアウトするのに十分なクォータがあることを確認する</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
       <c r="E113" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I113" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I113" s="16" t="n"/>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>081A5417-4158-433E-A3AD-3C2DE733165C</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6077,46 +5984,42 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>アプリケーションの展開</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>コードとしてのインフラストラクチャ</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>ARM/TF による自動化を使用して Azure リソースを作成する</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I114" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/developer/terraform/create-k8s-cluster-with-tf-and-aks</t>
+        </is>
+      </c>
+      <c r="I114" s="16" t="n"/>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>3ACBE04B-BE20-49D3-AFDA-47778424D116</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6127,41 +6030,41 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>アプリケーションの展開</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>発達</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>カナリアまたはブルー/グリーンのデプロイを使用する</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
       <c r="E115" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/containers/aks/secure-baseline-aks</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>785C2FA5-5B56-4AD4-A408-FE72734C476B</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6172,46 +6075,41 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>アプリケーションの展開</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>発達</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
+          <t>AKS Windows ワークロードに必要な場合は、ホスト プロセス コンテナーを使用できます。</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
       <c r="E116" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/aks/use-windows-hpc</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>785C2FA5-5B56-4AD4-A408-FE72734C476B</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6222,46 +6120,41 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>アプリケーションの展開</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>発達</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>イベント駆動型ワークロードを実行している場合は KEDA を使用する</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/azure-functions/functions-kubernetes-keda</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>A280DCF5-90CE-465D-B8E1-3F9CCBD46926</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6272,46 +6165,42 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>アプリケーションの展開</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>発達</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t>Dapr を使用してマイクロサービス開発を容易にする</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
       <c r="E118" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
-        </is>
-      </c>
-      <c r="I118" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://dapr.io/</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="n"/>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>26886D20-B66C-457B-A591-19BF8E8F5C58</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -11535,7 +11424,7 @@
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F87" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11621,12 +11510,12 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス管理</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -11646,7 +11535,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>このチェックはまだ見ていません</t>
+          <t>このチェックはまだ確認されていません</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -11720,7 +11609,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みであり、これ以上のアクションアイテムは関連付けられていません。</t>
+          <t>このチェックは検証済みであり、それ以上のアクションアイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -11752,7 +11641,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>推奨事項は理解されているが、現在の要件では必要ではない</t>
+          <t>推奨事項は理解されていますが、現在の要件では必要ありません</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -11784,7 +11673,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>現在の設計には適用されません</t>
+          <t>現在のデザインには適用できません</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">

--- a/spreadsheet/aks_checklist.ja.xlsx
+++ b/spreadsheet/aks_checklist.ja.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Azure AKS レビュー</t>
+          <t>Azure AKS Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1130,7 +1130,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>BC14AEA6-E65D-48D9-A3AD-C218E6436B06</t>
+          <t>bc14aea6-e65d-48d9-a3ad-c218e6436b06</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1176,7 +1176,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>36CB45E5-7960-4332-9BDF-8cc23318da61</t>
+          <t>36cb45e5-7960-4332-9bdf-8cc23318da61</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1222,7 +1222,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>170265F4-BB46-4A39-9AF7-F317284797b1</t>
+          <t>170265f4-bb46-4a39-9af7-f317284797b1</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1268,7 +1268,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>578A219A-46BE-4B54-9350-24922634292B</t>
+          <t>578a219a-46be-4b54-9350-24922634292b</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1314,7 +1314,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>71D41E36-10cc-457B-9A4B-1410D4395898</t>
+          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1360,7 +1360,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>C1288B3C-6A57-4CFC-9444-51E1A3D3453A</t>
+          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1498,7 +1498,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>7E42C78E-78C0-46A6-8A21-94956E698DC4</t>
+          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1544,7 +1544,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>A2FE27B2-E287-401A-8352-BEEDF 79B488D</t>
+          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1590,7 +1590,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>EEC4962C-C3BD-421B-B77F-26E5E6B3BEC3</t>
+          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1636,7 +1636,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>D4F3537C-1346-4DC5-9027-A71FFE1BD05D</t>
+          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1728,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1774,7 +1774,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1820,7 +1820,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1866,7 +1866,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1912,7 +1912,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1958,7 +1958,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>D2E0D5D7-71D4-41E3-910C-C57B4A4B1410</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2003,7 +2003,7 @@
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>A0F61565-9DE5-458F-A372-49C831112DBD</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2093,7 +2093,7 @@
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>22F54B29 - バーデ - 43AA - B1E8 - C38EC9366673</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2187,7 +2187,7 @@
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>43F63047-22D9-429C-8B1C-D622F54B29BA</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2233,7 +2233,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>3B365A91-7ECB-4E48-BBE5-4CD7DF2E8BBA</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2279,7 +2279,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>C4581559-BB91-463E-A908-AED8C44CE3B2</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2325,7 +2325,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>B3808B9F-A1CF-4204-AD01-3A923CE474DB</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2371,7 +2371,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>B3808B9F-A1CF-4204-AD01-3A923CE474DB</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2417,7 +2417,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>B3808B9F-A1CF-4204-AD01-3A923CE474DB</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2463,7 +2463,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>CBD8AC2A-AEBC-4A2A-94Da-1DBF3DC99248</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2509,7 +2509,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>C3C39C98-6BB2-4C12-859A-114B5E3DF584</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2555,7 +2555,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>ECCCD979-3B6B-4CDA-9B50-EB2EB03DDA6D</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2601,7 +2601,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>ECCCD979-3B6B-4CDA-9B50-EB2EB03DDA6D</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2739,7 +2739,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>A3A92C2D-E7E2-4165-A3A8-7AF4A7A1F893</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2785,7 +2785,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>9BDA4776-8F24-4C11-9775-C2EA55B46A94</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2830,7 +2830,7 @@
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>9BDA4776-8F24-4C11-9775-C2EA55B46A94</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2876,7 +2876,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>8008AE7D-7E4B-4475-A6C8-BDBF59BCE65D</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2922,7 +2922,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>8008AE7D-7E4B-4475-A6C8-BDBF59BCE65D</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2967,7 +2967,7 @@
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>BA7DA7BE-9952-4914-A384-5D997CB39132</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3012,7 +3012,7 @@
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>E8A03F97-8794-468D-96A7-86D60F96C97B</t>
+          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3286,7 +3286,7 @@
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>B03DDA6D-58D7-4C89-8DDB-107D5769AE66</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3331,7 +3331,7 @@
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>9CA48E4A-85E2-4223-BCE8-BB12307CA5F1</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3376,7 +3376,7 @@
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>6F158E3E-A3A9-42C2-BE7E-2165C3A87AF4</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3421,7 +3421,7 @@
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>A7A1F893-9BDA-4477-98F2-4C116775C2EA</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3466,7 +3466,7 @@
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>55B46A94-8008-4AE7-B7E4-B475B6C8BDBF</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3511,7 +3511,7 @@
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>59BCE65D-E8A0-43F9-9879-468D66A786D6</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3556,7 +3556,7 @@
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3601,7 +3601,7 @@
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3647,7 +3647,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3693,7 +3693,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3739,7 +3739,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>CC639637-A652-42AC-89E8-06965388E9DE</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3784,7 +3784,7 @@
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>D167DD18-2B0A-4C24-8B99-9A646F8389A7</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3830,7 +3830,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3876,7 +3876,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3922,7 +3922,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3968,7 +3968,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4014,7 +4014,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>F82CB8EB-8C0A-4A63-A25A-4956EAA8DC4A</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4060,7 +4060,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>24367B33-6971-45B1-952B-EEE0B9B588DE</t>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4106,7 +4106,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>FC4972cc-3CD2-45BF-A707-6E9EAB4ベッド32</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4152,7 +4152,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>FC4972cc-3CD2-45BF-A707-6E9EAB4ベッド32</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4198,7 +4198,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>9F7547C1-747D-4C56-868A-714435BD19DD</t>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4290,7 +4290,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>83958A8C-2689-4B32-AB57-CFC64546135A</t>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4474,7 +4474,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>6F8389A7-F82C-4B8E-A8C0-AA63A25A4956</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4566,7 +4566,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>67F7a9ED-5B31-4F38-A3F3-9812B2463CFF</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4658,7 +4658,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>6F7C4C0D-4E51-4464-AD24-57ED67138B82</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4704,7 +4704,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>139C9580-ADE3-426A-BA09-CF157D9F6477</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4842,7 +4842,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>C5A5B252-1E44-4A59-A9D2-399C4D7B68D0</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4888,7 +4888,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>C755562F-2B4E-4456-9B4D-874A748B662E</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5026,7 +5026,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>73B32A5A-67F7-4A9E-B5B3-1F38C3F39812</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5072,7 +5072,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>B2463CFF-E189-4C59-ADF0-D5A73DD4CE32</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5118,7 +5118,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>C1881370-6F7C-44C0-B4E5-14648D2457ed</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5256,7 +5256,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>1A4835AC-9422-423E-AE80-B123081A5417</t>
+          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5352,7 +5352,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>BE209D39-FDA4-4777-A424-D116785C2FA5</t>
+          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5398,7 +5398,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>74C2EE76-569B-4A79-A57E-DEDF91B022C9</t>
+          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5448,7 +5448,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>5B56AD48-408F-4E72-934C-476BA280DCF5</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5494,7 +5494,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>90CE65DE-8E13-4F9C-ABD4-69266ABCA264</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5540,7 +5540,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>90CE65DE-8E13-4F9C-ABD4-69266ABCA264</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5586,7 +5586,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>FAA19BFE-9D55-4D04-A3C4-919CA1B2D121</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5881,7 +5881,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>B54EB2EB-03DD-4AA3-9927-18E2EDB11726</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5927,7 +5927,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>769EF669-1A48-435A-A942-223ECE80B123</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5973,7 +5973,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>081A5417-4158-433E-A3AD-3C2DE733165C</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6019,7 +6019,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>3ACBE04B-BE20-49D3-AFDA-47778424D116</t>
+          <t>3acbe04b-be20-49d3-afda-47778424d116</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6064,7 +6064,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>785C2FA5-5B56-4AD4-A408-FE72734C476B</t>
+          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6109,7 +6109,7 @@
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>785C2FA5-5B56-4AD4-A408-FE72734C476B</t>
+          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6154,7 +6154,7 @@
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>A280DCF5-90CE-465D-B8E1-3F9CCBD46926</t>
+          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6200,7 +6200,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>26886D20-B66C-457B-A591-19BF8E8F5C58</t>
+          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -11399,7 +11399,7 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="9">
+  <dataValidations count="13">
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
@@ -11416,6 +11416,18 @@
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">

--- a/spreadsheet/aks_checklist.ja.xlsx
+++ b/spreadsheet/aks_checklist.ja.xlsx
@@ -1243,7 +1243,7 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョンでサポートされている場合は可用性ゾーンを使用する</t>
+          <t>可用性ゾーンが Azure リージョンでサポートされている場合は、その可用性ゾーンを使用する</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>

--- a/spreadsheet/aks_checklist.ja.xlsx
+++ b/spreadsheet/aks_checklist.ja.xlsx
@@ -1095,23 +1095,23 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>BC および DR</t>
+          <t>アプリケーションの展開</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>必要条件</t>
+          <t>発達</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>SLA、RTO(目標復旧時間)、RPO(目標復旧時点)などの非機能要件を定義します。</t>
+          <t>カナリアまたはブルー/グリーンのデプロイを使用する</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1122,7 +1122,7 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/containers/aks/secure-baseline-aks</t>
         </is>
       </c>
       <c r="I8" s="16" t="n"/>
@@ -1130,7 +1130,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>bc14aea6-e65d-48d9-a3ad-c218e6436b06</t>
+          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1141,23 +1141,23 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>BC および DR</t>
+          <t>アプリケーションの展開</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>災害復旧</t>
+          <t>発達</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>DRテストを定期的にスケジュールして実行する</t>
+          <t>AKS Windows ワークロードに必要な場合は、ホスト プロセス コンテナーを使用できます。</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
       <c r="E9" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1168,7 +1168,7 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/aks/use-windows-hpc</t>
         </is>
       </c>
       <c r="I9" s="16" t="n"/>
@@ -1176,7 +1176,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>36cb45e5-7960-4332-9bdf-8cc23318da61</t>
+          <t>ab5351f6-383a-45ed-9c5e-b143b16db40a</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1187,23 +1187,23 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>BC および DR</t>
+          <t>アプリケーションの展開</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>発達</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager または Azure Front Door をリージョン フェールオーバーのグローバル ロード バランサーとして使用する</t>
+          <t>イベント駆動型ワークロードを実行している場合は KEDA を使用する</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1214,7 +1214,7 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
+          <t>https://docs.microsoft.com/azure/azure-functions/functions-kubernetes-keda</t>
         </is>
       </c>
       <c r="I10" s="16" t="n"/>
@@ -1222,7 +1222,7 @@
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>170265f4-bb46-4a39-9af7-f317284797b1</t>
+          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1233,23 +1233,23 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>BC および DR</t>
+          <t>アプリケーションの展開</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>発達</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>可用性ゾーンが Azure リージョンでサポートされている場合は、その可用性ゾーンを使用する</t>
+          <t>Dapr を使用してマイクロサービス開発を容易にする</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
       <c r="E11" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1260,7 +1260,7 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/availability-zones</t>
+          <t>https://dapr.io/</t>
         </is>
       </c>
       <c r="I11" s="16" t="n"/>
@@ -1268,7 +1268,7 @@
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>578a219a-46be-4b54-9350-24922634292b</t>
+          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1279,23 +1279,23 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>BC および DR</t>
+          <t>アプリケーションの展開</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>コードとしてのインフラストラクチャ</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>SLA でサポートされる AKS オファリングを使用する</t>
+          <t>ARM/TF による自動化を使用して Azure リソースを作成する</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
       <c r="E12" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1306,7 +1306,7 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/uptime-sla</t>
+          <t>https://docs.microsoft.com/azure/developer/terraform/create-k8s-cluster-with-tf-and-aks</t>
         </is>
       </c>
       <c r="I12" s="16" t="n"/>
@@ -1314,7 +1314,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
+          <t>3acbe04b-be20-49d3-afda-47778424d116</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1330,18 +1330,18 @@
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>高可用性</t>
+          <t>災害復旧</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>ポッドとデプロイ定義で中断バジェットを使用する</t>
+          <t>DRテストを定期的にスケジュールして実行する</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I13" s="16" t="n"/>
@@ -1360,7 +1360,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
+          <t>36cb45e5-7960-4332-9bdf-8cc23318da61</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1381,13 +1381,13 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>プライベートレジストリを使用する場合は、複数のリージョンにイメージを格納するようにリージョンレプリケーションを構成します</t>
+          <t>Azure Traffic Manager または Azure Front Door をリージョン フェールオーバーのグローバル ロード バランサーとして使用する</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
       <c r="E14" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1398,7 +1398,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
         </is>
       </c>
       <c r="I14" s="16" t="n"/>
@@ -1406,7 +1406,7 @@
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
+          <t>170265f4-bb46-4a39-9af7-f317284797b1</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1417,23 +1417,23 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>BC および DR</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>サービス プリンシパルの代わりにマネージド ID を使用する</t>
+          <t>可用性ゾーンが Azure リージョンでサポートされている場合は、その可用性ゾーンを使用する</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
       <c r="E15" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1444,7 +1444,7 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-managed-identity</t>
+          <t>https://docs.microsoft.com/azure/aks/availability-zones</t>
         </is>
       </c>
       <c r="I15" s="16" t="n"/>
@@ -1452,7 +1452,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
+          <t>578a219a-46be-4b54-9350-24922634292b</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1463,23 +1463,23 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>BC および DR</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>認証を AAD と統合する (マネージド統合を使用)</t>
+          <t>SLA でサポートされる AKS オファリングを使用する</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
       <c r="E16" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1490,7 +1490,7 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/managed-aad</t>
+          <t>https://docs.microsoft.com/azure/aks/uptime-sla</t>
         </is>
       </c>
       <c r="I16" s="16" t="n"/>
@@ -1498,7 +1498,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
+          <t>71d41e36-10cc-457b-9a4b-1410d4395898</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1509,23 +1509,23 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>BC および DR</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>管理者 kubeconfig (資格情報の取得 --admin) へのアクセスを制限する</t>
+          <t>ポッドとデプロイ定義で中断バジェットを使用する</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
       <c r="E17" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1536,7 +1536,7 @@
       <c r="G17" s="22" t="n"/>
       <c r="H17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/control-kubeconfig-access</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I17" s="16" t="n"/>
@@ -1544,7 +1544,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
+          <t>c1288b3c-6a57-4cfc-9444-51e1a3d3453a</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1555,23 +1555,23 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>BC および DR</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>高可用性</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>承認を AAD RBAC と統合する</t>
+          <t>プライベートレジストリを使用する場合は、複数のリージョンにイメージを格納するようにリージョンレプリケーションを構成します</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
       <c r="E18" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1582,7 +1582,7 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/manage-azure-rbac</t>
+          <t>https://docs.microsoft.com/azure/container-registry/container-registry-geo-replication</t>
         </is>
       </c>
       <c r="I18" s="16" t="n"/>
@@ -1590,7 +1590,7 @@
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
+          <t>3c763963-7a55-42d5-a15e-401955387e5c</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1601,17 +1601,17 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>BC および DR</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>必要条件</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Kubernetes で RBAC 特権を制限するために名前空間を使用する</t>
+          <t>SLA、RTO(目標復旧時間)、RPO(目標復旧時点)などの非機能要件を定義します。</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1628,7 +1628,7 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-identity</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/business-continuity-and-disaster-recovery</t>
         </is>
       </c>
       <c r="I19" s="16" t="n"/>
@@ -1636,7 +1636,7 @@
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
+          <t>bc14aea6-e65d-48d9-a3ad-c218e6436b06</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1647,23 +1647,23 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>コストガバナンス</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>POD ID アクセス管理の場合は、Azure AD ワークロード ID (プレビュー) を使用します。</t>
+          <t>kubecost などの外部アプリケーションを使用して、さまざまなユーザーにコストを割り当てる</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
       <c r="E20" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1674,7 +1674,7 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/scenarios/aks/eslz-cost-governance-with-kubecost</t>
         </is>
       </c>
       <c r="I20" s="16" t="n"/>
@@ -1682,7 +1682,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1693,23 +1693,23 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>コストガバナンス</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>AKS の非対話型ログインの場合は、kubelogin (プレビュー) を使用します。</t>
+          <t>必要に応じて、ノードプールスナップショットをスケーリングします</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1720,7 +1720,7 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
+          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
         </is>
       </c>
       <c r="I21" s="16" t="n"/>
@@ -1728,7 +1728,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1739,23 +1739,23 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>コストガバナンス</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>AKS ローカル アカウントを無効にする</t>
+          <t>スケールダウンモードを使用してノードを削除/割り当て解除する</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
       <c r="E22" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1766,7 +1766,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
+          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
         </is>
       </c>
       <c r="I22" s="16" t="n"/>
@@ -1774,7 +1774,7 @@
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1785,23 +1785,23 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>コストガバナンス</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて構成する ジャストインタイムクラスターアクセス</t>
+          <t>必要に応じて、AKS クラスターでマルチインスタンス分割 GPU を使用する</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1812,7 +1812,7 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
         </is>
       </c>
       <c r="I23" s="16" t="n"/>
@@ -1820,7 +1820,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1831,17 +1831,17 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>コストガバナンス</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、AKS の AAD 条件付きアクセスを構成する</t>
+          <t>開発/テスト クラスターを実行している場合は、ノードプールの開始/停止を使用します</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1858,7 +1858,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
         </is>
       </c>
       <c r="I24" s="16" t="n"/>
@@ -1866,7 +1866,7 @@
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1877,23 +1877,23 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Windows AKS ワークロードに必要な場合は、gMSA を構成します。</t>
+          <t>Azure Policy for Kubernetes を使用してクラスターのコンプライアンスを確保する</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
       <c r="E25" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1904,7 +1904,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
         </is>
       </c>
       <c r="I25" s="16" t="n"/>
@@ -1912,7 +1912,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1923,17 +1923,17 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>より細かく制御するには、マネージドKubeletアイデンティティの使用を検討してください</t>
+          <t>ユーザー/システムノードプールによるコントロールプレーンからのアプリケーションの分離</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
@@ -1950,7 +1950,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
+          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="I26" s="16" t="n"/>
@@ -1958,7 +1958,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -1969,23 +1969,23 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>要件に最適な CNI ネットワーク プラグインを選択する (Azure CNI を推奨)</t>
+          <t>システムノードプールにtaintを追加して専用にする</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
       <c r="E27" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1996,14 +1996,14 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2014,23 +2014,23 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Azure CNI を使用している場合は、ノードあたりのポッドの最大数を考慮して、それに応じてサブネットのサイズを設定します</t>
+          <t>イメージにプライベート レジストリ (ACR など) を使用する</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
       <c r="E28" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2041,14 +2041,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://docs.microsoft.com/azure/container-registry/</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2059,23 +2059,23 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Azure CNI を使用している場合は、最大ポッド/ノード数 (既定値は 30) を確認します。</t>
+          <t>イメージの脆弱性をスキャンする</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
       <c r="E29" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2086,14 +2086,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2104,27 +2104,23 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>プライベート IP ロードバランサー サービスを使用する場合は、(AKS サブネットではなく) 専用サブネットを使用します。</t>
-        </is>
-      </c>
-      <c r="D30" s="22" t="inlineStr">
-        <is>
-          <t>内部アプリの場合、組織は多くの場合、ファイアウォールで AKS サブネット全体を開きます。これにより、ノードへのネットワーク アクセスも開かれ、ポッドへのネットワーク アクセスも可能になる可能性があります (Azure CNI を使用している場合)。LoadBalancer IP が別のサブネットにある場合は、この IP のみをアプリ クライアントで使用できる必要があります。別の理由は、AKS サブネット内の IP アドレスが不足しているリソースである場合、その IP アドレスをサービスに使用すると、クラスターの最大スケーラビリティが低下することです。</t>
-        </is>
-      </c>
+          <t>Azure セキュリティ センターを使用してセキュリティ体制の脆弱性を検出する</t>
+        </is>
+      </c>
+      <c r="D30" s="22" t="n"/>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2135,14 +2131,14 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/internal-lb</t>
+          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2153,23 +2149,23 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>ティッカー</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>それに応じてサービスのIPアドレス範囲のサイズを設定します(クラスターのスケーラビリティが制限されます)</t>
+          <t>必要に応じて FIPS を設定する</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2180,14 +2176,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>42d4aefe-2383-470e-b019-c30df24996b2</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2198,17 +2194,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>AzFW/NVA を使用してエグレス トラフィックをフィルター処理します (セキュリティ要件で義務付けられている場合)</t>
+          <t>アプリの分離要件 (名前空間/ノードプール/クラスター) を定義する</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2225,7 +2221,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/limit-egress-traffic</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2233,7 +2229,7 @@
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2244,17 +2240,17 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>パブリック API エンドポイントを使用している場合は、アクセスできる IP アドレスを制限する</t>
+          <t>CSI シークレット ストア ドライバーを使用して Azure Key Vault にシークレットを格納する</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2271,7 +2267,7 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
+          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
         </is>
       </c>
       <c r="I33" s="16" t="n"/>
@@ -2279,7 +2275,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2290,23 +2286,23 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>拡張性</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>イングレス コントローラーを使用して、LoadBalancer タイプのサービスで公開する代わりに Web ベースのアプリを公開する</t>
+          <t>クラスターにサービス プリンシパルを使用する場合は、資格情報を定期的に更新します (四半期ごとなど)。</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2317,7 +2313,7 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-network</t>
+          <t>https://docs.microsoft.com/azure/aks/update-credentials</t>
         </is>
       </c>
       <c r="I34" s="16" t="n"/>
@@ -2325,7 +2321,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2336,23 +2332,23 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>拡張性</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Azue NAT ゲートウェイをアウトバウンドタイプとして使用して、エグレス トラフィックをスケーリングする</t>
+          <t>必要に応じて、キー管理サービス etcd 暗号化を追加します。</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2363,7 +2359,7 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
+          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
         </is>
       </c>
       <c r="I35" s="16" t="n"/>
@@ -2371,7 +2367,7 @@
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2382,23 +2378,23 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>拡張性</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Azure CNI IP の枯渇を回避するために IP の動的割り当てを使用する</t>
+          <t>必要に応じて、AKS のコンフィデンシャル コンピューティングの使用を検討する</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2409,7 +2405,7 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
+          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
         </is>
       </c>
       <c r="I36" s="16" t="n"/>
@@ -2417,7 +2413,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2428,17 +2424,17 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ガバナンスとセキュリティ</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>おすすめの方法</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>AGIC を使用している場合は、クラスタ間で AppGW を共有しないでください。</t>
+          <t>コンテナーに Defender を使用することを検討してください</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2455,7 +2451,7 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
         </is>
       </c>
       <c r="I37" s="16" t="n"/>
@@ -2463,7 +2459,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
+          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2474,23 +2470,23 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>プライベート エンドポイント (推奨) または仮想ネットワーク サービス エンドポイントを使用してクラスターから PaaS サービスにアクセスする</t>
+          <t>サービス プリンシパルの代わりにマネージド ID を使用する</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
       <c r="E38" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2501,7 +2497,7 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/private-link/private-link-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/use-managed-identity</t>
         </is>
       </c>
       <c r="I38" s="16" t="n"/>
@@ -2509,7 +2505,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2520,23 +2516,23 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>要件で義務付けられている場合は、プライベートクラスターを使用する</t>
+          <t>認証を AAD と統合する (マネージド統合を使用)</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2547,7 +2543,7 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/private-clusters</t>
+          <t>https://docs.microsoft.com/azure/aks/managed-aad</t>
         </is>
       </c>
       <c r="I39" s="16" t="n"/>
@@ -2555,7 +2551,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2566,17 +2562,17 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>Windows 2019 および 2022 AKS ノードの場合、Calico ネットワーク ポリシーを使用できます</t>
+          <t>管理者 kubeconfig (資格情報の取得 --admin) へのアクセスを制限する</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2593,7 +2589,7 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
+          <t>https://docs.microsoft.com/azure/aks/control-kubeconfig-access</t>
         </is>
       </c>
       <c r="I40" s="16" t="n"/>
@@ -2601,7 +2597,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2612,23 +2608,23 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Kubernetes ネットワーク ポリシー オプションを有効にする (Calico/Azure)</t>
+          <t>承認を AAD RBAC と統合する</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
       <c r="E41" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2639,7 +2635,7 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-network-policies</t>
+          <t>https://docs.microsoft.com/azure/aks/manage-azure-rbac</t>
         </is>
       </c>
       <c r="I41" s="16" t="n"/>
@@ -2647,7 +2643,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2658,17 +2654,17 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Kubernetes ネットワーク ポリシーを使用してクラスター内のセキュリティを強化する</t>
+          <t>Kubernetes で RBAC 特権を制限するために名前空間を使用する</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2685,7 +2681,7 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-identity</t>
         </is>
       </c>
       <c r="I42" s="16" t="n"/>
@@ -2693,7 +2689,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2704,23 +2700,23 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Web ワークロード (UI または API) に WAF を使用する</t>
+          <t>POD ID アクセス管理の場合は、Azure AD ワークロード ID (プレビュー) を使用します。</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
       <c r="E43" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2731,7 +2727,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
         </is>
       </c>
       <c r="I43" s="16" t="n"/>
@@ -2739,7 +2735,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2750,17 +2746,17 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>AKS 仮想ネットワークで DDoS 標準を使用する</t>
+          <t>AKS の非対話型ログインの場合は、kubelogin (プレビュー) を使用します。</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2777,7 +2773,7 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
         </is>
       </c>
       <c r="I44" s="16" t="n"/>
@@ -2785,7 +2781,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2796,23 +2792,23 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、会社の HTTP プロキシを追加します。</t>
+          <t>AKS ローカル アカウントを無効にする</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
       <c r="E45" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2823,14 +2819,14 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2841,23 +2837,23 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>おすすめの方法</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>AKS アプリケーション ルーティング アドオンを使用しない</t>
+          <t>必要に応じて構成する ジャストインタイムクラスターアクセス</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
       <c r="E46" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2868,7 +2864,7 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/http-application-routing</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I46" s="16" t="n"/>
@@ -2876,7 +2872,7 @@
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2887,23 +2883,23 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>おすすめの方法</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Windows ワークロードの場合は、高速ネットワークを使用する</t>
+          <t>必要に応じて、AKS の AAD 条件付きアクセスを構成する</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
       <c r="E47" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2914,7 +2910,7 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I47" s="16" t="n"/>
@@ -2922,7 +2918,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -2933,23 +2929,23 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>おすすめの方法</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>標準のALBを使用します(基本的なALBとは対照的に)</t>
+          <t>Windows AKS ワークロードに必要な場合は、gMSA を構成します。</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
       <c r="E48" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2960,14 +2956,14 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -2978,17 +2974,17 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>は</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド接続が必要な場合は、2xER または ER+VPN を使用して可用性を向上させます</t>
+          <t>より細かく制御するには、マネージドKubeletアイデンティティの使用を検討してください</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3005,14 +3001,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
+          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3028,12 +3024,12 @@
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>おすすめの方法</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>高度なマイクロサービス通信管理にサービスメッシュを使用することを検討する</t>
+          <t>AGIC を使用している場合は、クラスタ間で AppGW を共有しないでください。</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3050,7 +3046,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/servicemesh-about</t>
+          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3058,7 +3054,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3074,18 +3070,18 @@
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>おすすめの方法</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、独自のCNIプラグインを追加します</t>
+          <t>AKS アプリケーション ルーティング アドオンを使用しない</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
       <c r="E51" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3096,7 +3092,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
+          <t>https://docs.microsoft.com/azure/aks/http-application-routing</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3104,7 +3100,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3120,18 +3116,18 @@
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>おすすめの方法</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、AKS でノードごとにパブリック IP を構成します</t>
+          <t>Windows ワークロードの場合は、高速ネットワークを使用する</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
       <c r="E52" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3142,7 +3138,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3150,7 +3146,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3171,13 +3167,13 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Azure CNI を使用している場合は、ノードプールに異なるサブネットを使用することを検討してください</t>
+          <t>標準のALBを使用します(基本的なALBとは対照的に)</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
       <c r="E53" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3188,14 +3184,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
+          <t>https://docs.microsoft.com/azure/aks/load-balancer-standard</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3206,17 +3202,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>おすすめの方法</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>CSI シークレット ストア ドライバーを使用して Azure Key Vault にシークレットを格納する</t>
+          <t>Azure CNI を使用している場合は、ノードプールに異なるサブネットを使用することを検討してください</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3233,7 +3229,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3241,7 +3237,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3252,23 +3248,23 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>クラスターのユーザー サービス プリンシパルの場合は、資格情報を定期的に更新します (四半期ごとなど)。</t>
+          <t>プライベート エンドポイント (推奨) または仮想ネットワーク サービス エンドポイントを使用してクラスターから PaaS サービスにアクセスする</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3279,14 +3275,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/update-credentials</t>
+          <t>https://docs.microsoft.com/azure/private-link/private-link-overview</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3297,17 +3293,17 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>は</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy for Kubernetes を使用してクラスターのコンプライアンスを確保する</t>
+          <t>ハイブリッド接続が必要な場合は、2xER または ER+VPN を使用して可用性を向上させます</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3324,14 +3320,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3342,23 +3338,23 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>ユーザー/システムノードプールによるコントロールプレーンからのアプリケーションの分離</t>
+          <t>要件に最適な CNI ネットワーク プラグインを選択する (Azure CNI を推奨)</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
       <c r="E57" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3369,14 +3365,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3387,23 +3383,23 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>システムノードプールにtaintを追加して専用にする</t>
+          <t>Azure CNI を使用している場合は、ノードあたりのポッドの最大数を考慮して、それに応じてサブネットのサイズを設定します</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
       <c r="E58" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3414,14 +3410,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3432,23 +3428,23 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>イメージにプライベート レジストリ (ACR など) を使用する</t>
+          <t>Azure CNI を使用している場合は、最大ポッド/ノード数 (既定値は 30) を確認します。</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
       <c r="E59" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3459,14 +3455,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/container-registry/</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3477,23 +3473,27 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>イメージの脆弱性をスキャンする</t>
-        </is>
-      </c>
-      <c r="D60" s="22" t="n"/>
+          <t>プライベート IP ロードバランサー サービスを使用する場合は、(AKS サブネットではなく) 専用サブネットを使用します。</t>
+        </is>
+      </c>
+      <c r="D60" s="22" t="inlineStr">
+        <is>
+          <t>内部アプリの場合、組織は多くの場合、ファイアウォールで AKS サブネット全体を開きます。これにより、ノードへのネットワーク アクセスも開かれ、ポッドへのネットワーク アクセスも可能になる可能性があります (Azure CNI を使用している場合)。LoadBalancer IP が別のサブネットにある場合は、この IP のみをアプリ クライアントで使用できる必要があります。別の理由は、AKS サブネット内の IP アドレスが不足しているリソースである場合、その IP アドレスをサービスに使用すると、クラスターの最大スケーラビリティが低下することです。</t>
+        </is>
+      </c>
       <c r="E60" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3504,14 +3504,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
+          <t>https://docs.microsoft.com/azure/aks/internal-lb</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3522,23 +3522,23 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>ティッカー</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>Azure セキュリティ センターを使用してセキュリティ体制の脆弱性を検出する</t>
+          <t>それに応じてサービスのIPアドレス範囲のサイズを設定します(クラスターのスケーラビリティが制限されます)</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
       <c r="E61" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3549,14 +3549,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/container-security</t>
+          <t>https://docs.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3567,17 +3567,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて FIPS を設定する</t>
+          <t>必要に応じて、独自のCNIプラグインを追加します</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3594,14 +3594,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
+          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3612,23 +3612,23 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、キー管理サービス etcd 暗号化を追加します。</t>
+          <t>必要に応じて、AKS でノードごとにパブリック IP を構成します</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
       <c r="E63" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3639,7 +3639,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3647,7 +3647,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3658,23 +3658,23 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、AKS のコンフィデンシャル コンピューティングの使用を検討する</t>
+          <t>イングレス コントローラーを使用して、LoadBalancer タイプのサービスで公開する代わりに Web ベースのアプリを公開する</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
       <c r="E64" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3685,7 +3685,7 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/concepts-network</t>
         </is>
       </c>
       <c r="I64" s="16" t="n"/>
@@ -3693,7 +3693,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3704,23 +3704,23 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>コンテナーに Defender を使用することを検討してください</t>
+          <t>Azue NAT ゲートウェイをアウトバウンドタイプとして使用して、エグレス トラフィックをスケーリングする</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
       <c r="E65" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3731,7 +3731,7 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
+          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
         </is>
       </c>
       <c r="I65" s="16" t="n"/>
@@ -3739,7 +3739,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3750,23 +3750,23 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>ガバナンスとセキュリティ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>アプリの分離要件 (名前空間/ノードプール/クラスター) を定義する</t>
+          <t>Azure CNI IP の枯渇を回避するために IP の動的割り当てを使用する</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
       <c r="E66" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3777,14 +3777,14 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3795,23 +3795,23 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>コストガバナンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>kubecost などの外部アプリケーションを使用して、さまざまなユーザーに cust を割り当てる</t>
+          <t>AzFW/NVA を使用してエグレス トラフィックをフィルター処理します (セキュリティ要件で義務付けられている場合)</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3822,7 +3822,7 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/scenarios/aks/eslz-cost-governance-with-kubecost</t>
+          <t>https://docs.microsoft.com/azure/aks/limit-egress-traffic</t>
         </is>
       </c>
       <c r="I67" s="16" t="n"/>
@@ -3830,7 +3830,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3841,23 +3841,23 @@
     <row r="68" ht="16.5" customHeight="1" s="13">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>コストガバナンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、ノードプールスナップショットをスケーリングします</t>
+          <t>パブリック API エンドポイントを使用している場合は、アクセスできる IP アドレスを制限する</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3868,7 +3868,7 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
+          <t>https://docs.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
         </is>
       </c>
       <c r="I68" s="16" t="n"/>
@@ -3876,7 +3876,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3887,23 +3887,23 @@
     <row r="69" ht="16.5" customHeight="1" s="13">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>コストガバナンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>スケールダウンモードを使用してノードを削除/割り当て解除する</t>
+          <t>要件で義務付けられている場合は、プライベートクラスターを使用する</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3914,7 +3914,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
+          <t>https://docs.microsoft.com/azure/aks/private-clusters</t>
         </is>
       </c>
       <c r="I69" s="16" t="n"/>
@@ -3922,7 +3922,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -3933,17 +3933,17 @@
     <row r="70" ht="16.5" customHeight="1" s="13">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>コストガバナンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、AKS クラスターでマルチインスタンス分割 GPU を使用する</t>
+          <t>Windows 2019 および 2022 AKS ノードの場合、Calico ネットワーク ポリシーを使用できます</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -3960,7 +3960,7 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
+          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I70" s="16" t="n"/>
@@ -3968,7 +3968,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -3979,23 +3979,23 @@
     <row r="71" ht="16.5" customHeight="1" s="13">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>コストガバナンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>開発/テスト クラスターを実行している場合は、ノードプールの開始/停止を使用します</t>
+          <t>Kubernetes ネットワーク ポリシー オプションを有効にする (Calico/Azure)</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
       <c r="E71" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4006,7 +4006,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
+          <t>https://docs.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I71" s="16" t="n"/>
@@ -4014,7 +4014,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>f82cb8eb-8c0a-4a63-a25a-4956eaa8dc4a</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4025,17 +4025,17 @@
     <row r="72" ht="16.5" customHeight="1" s="13">
       <c r="A72" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>エフェメラル OS ディスクを使用する</t>
+          <t>Kubernetes ネットワーク ポリシーを使用してクラスター内のセキュリティを強化する</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4052,7 +4052,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I72" s="16" t="n"/>
@@ -4060,7 +4060,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4071,17 +4071,17 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>非エフェメラル ディスクの場合、複数のポッドを実行するために高いパフォーマンスが必要であり、既定の AKS ログ ローテーションしきい値で巨大なログが生成されるため、多くのポッド/ノードを実行する場合は、ノードに高い IOPS とより大きな OS ディスクを使用します。</t>
+          <t>Web ワークロード (UI または API) に WAF を使用する</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4098,7 +4098,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4106,7 +4106,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4117,23 +4117,23 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>ハイパー パフォーマンス ストレージ オプションの場合は、AKS で Ultra ディスクを使用します</t>
+          <t>AKS 仮想ネットワークで DDoS 標準を使用する</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4144,7 +4144,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4152,7 +4152,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4163,23 +4163,23 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>クラスターに状態を保持することは避け、データを外部 (AzStorage、AzSQL、Cosmos など) に格納します。</t>
+          <t>必要に応じて、会社の HTTP プロキシを追加します。</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4190,7 +4190,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
+          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4198,7 +4198,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4209,17 +4209,17 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>AzFiles Standard を使用する場合は、パフォーマンス上の理由から AzFiles Premium や ANF を検討してください。</t>
+          <t>高度なマイクロサービス通信管理にサービスメッシュを使用することを検討する</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4236,7 +4236,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-storage</t>
+          <t>https://docs.microsoft.com/azure/aks/servicemesh-about</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4244,7 +4244,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4260,18 +4260,18 @@
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>貯蔵</t>
+          <t>警告</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Azure ディスクと AZ を使用する場合は、適切なゾーンにストレージをプロビジョニングするために VolumeBindingMode:WaitForFirstConsumer を使用して LRS ディスクのゾーン内にノードプールを配置するか、複数のゾーンにまたがるノードプールに ZRS ディスクを使用することを検討してください。</t>
+          <t>最も重要なメトリックに関するアラートを構成します (推奨事項については、「コンテナーの分析情報」を参照してください)</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4282,7 +4282,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4290,7 +4290,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4428,7 +4428,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
+          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4444,12 +4444,12 @@
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>コンテナインサイト(またはPrometheusなどの他のツール)を使用してクラスターメトリクスを監視する</t>
+          <t>Kubernetes バージョンを定期的に (四半期ごとなど) アップグレードするか、AKS 自動アップグレード機能を使用する定期的なプロセスを用意する</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4466,7 +4466,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/supported-kubernetes-versions</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4474,7 +4474,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4490,12 +4490,12 @@
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Container Insights (または Telegraf/ElasticSearch などの他のツール) を使用してクラスター ログを保存および分析します。</t>
+          <t>ノード イメージのアップグレードを使用していない場合は、Linux ノードのアップグレードに kured を使用します。</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4512,7 +4512,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/aks/node-updates-kured</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4520,7 +4520,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4536,12 +4536,12 @@
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>警告</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>最も重要なメトリックに関するアラートを構成します (推奨事項については、「コンテナーの分析情報」を参照してください)</t>
+          <t>クラスタノードイメージを定期的に(毎週など)アップグレードする定期的なプロセスを用意する</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4558,7 +4558,7 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
+          <t>https://docs.microsoft.com/azure/aks/node-image-upgrade</t>
         </is>
       </c>
       <c r="I83" s="16" t="n"/>
@@ -4566,7 +4566,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4587,13 +4587,13 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Kubernetes バージョンを定期的に (四半期ごとなど) アップグレードするか、AKS 自動アップグレード機能を使用する定期的なプロセスを用意する</t>
+          <t>アプリケーションまたはクラスター構成を複数のクラスターにデプロイするための gitops を検討する</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
       <c r="E84" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4604,7 +4604,7 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/supported-kubernetes-versions</t>
+          <t>https://docs.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
         </is>
       </c>
       <c r="I84" s="16" t="n"/>
@@ -4612,7 +4612,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4633,13 +4633,13 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>ノード イメージのアップグレードを使用していない場合は、Linux ノードのアップグレードに kured を使用します。</t>
+          <t>プライベート クラスターでの AKS コマンド呼び出しの使用を検討する</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
       <c r="E85" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4650,7 +4650,7 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/node-updates-kured</t>
+          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
         </is>
       </c>
       <c r="I85" s="16" t="n"/>
@@ -4658,7 +4658,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4679,13 +4679,13 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>クラスタノードイメージを定期的に(毎週など)アップグレードする定期的なプロセスを用意する</t>
+          <t>計画されたイベントの場合は、ノード自動ドレインの使用を検討してください</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
       <c r="E86" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4696,7 +4696,7 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/node-image-upgrade</t>
+          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
         </is>
       </c>
       <c r="I86" s="16" t="n"/>
@@ -4704,7 +4704,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4725,13 +4725,13 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションまたはクラスター構成を複数のクラスターにデプロイするための gitops を検討する</t>
+          <t>独自のガバナンスプラクティスを開発して、ノードRG(別名「インフラRG」)のオペレーターによって変更が実行されないようにします。</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
       <c r="E87" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4742,7 +4742,7 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
+          <t>https://docs.microsoft.com/azure/aks/faq</t>
         </is>
       </c>
       <c r="I87" s="16" t="n"/>
@@ -4750,7 +4750,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4771,7 +4771,7 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>プライベート クラスターでの AKS コマンド呼び出しの使用を検討する</t>
+          <t>カスタムノードRG(別名「インフラRG」)名を使用する</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -4788,7 +4788,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
+          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I88" s="16" t="n"/>
@@ -4796,7 +4796,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4812,18 +4812,18 @@
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>時間的制約のないワークロードのスポットノードプールを検討する</t>
+          <t>非推奨の Kubernetes API を YAML マニフェストで使用しないでください</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4834,7 +4834,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/spot-node-pool</t>
+          <t>https://kubernetes.io/docs/setup/release/notes/</t>
         </is>
       </c>
       <c r="I89" s="16" t="n"/>
@@ -4842,7 +4842,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4858,12 +4858,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>費用</t>
+          <t>コンプライアンス</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>迅速なバーストのために AKS 仮想ノードを検討する</t>
+          <t>ウィンドウ ノードを汚染する</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4880,7 +4880,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://docs.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
         </is>
       </c>
       <c r="I90" s="16" t="n"/>
@@ -4888,7 +4888,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>計画されたイベントの場合は、ノード自動ドレインの使用を検討してください</t>
+          <t>Windowsコンテナのパッチレベルをホストパッチレベルと同期させる</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4926,7 +4926,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
+          <t>https://docs.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
         </is>
       </c>
       <c r="I91" s="16" t="n"/>
@@ -4934,7 +4934,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -4955,13 +4955,17 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>独自のガバナンスプラクティスを開発して、ノードRG(別名「インフラRG」)のオペレーターによって変更が実行されないようにします。</t>
-        </is>
-      </c>
-      <c r="D92" s="22" t="n"/>
+          <t>マスター ログ (API ログ) を Azure Monitor または任意のログ管理ソリューションに送信する</t>
+        </is>
+      </c>
+      <c r="D92" s="22" t="inlineStr">
+        <is>
+          <t>クラスター レベルでの診断設定経由</t>
+        </is>
+      </c>
       <c r="E92" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -4972,7 +4976,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/faq</t>
+          <t>https://docs.microsoft.com/azure/aks/monitor-aks</t>
         </is>
       </c>
       <c r="I92" s="16" t="n"/>
@@ -4980,7 +4984,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -4996,12 +5000,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>カスタムノードRG(別名「インフラRG」)名を使用する</t>
+          <t>時間的制約のないワークロードのスポットノードプールを検討する</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5018,7 +5022,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://docs.microsoft.com/azure/aks/spot-node-pool</t>
         </is>
       </c>
       <c r="I93" s="16" t="n"/>
@@ -5026,7 +5030,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5042,18 +5046,18 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>費用</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>非推奨の Kubernetes API を YAML マニフェストで使用しないでください</t>
+          <t>迅速なバーストのために AKS 仮想ノードを検討する</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
       <c r="E94" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5064,7 +5068,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://kubernetes.io/docs/setup/release/notes/</t>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I94" s="16" t="n"/>
@@ -5072,7 +5076,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5088,18 +5092,18 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>ウィンドウ ノードを汚染する</t>
+          <t>コンテナインサイト(またはPrometheusなどの他のツール)を使用してクラスターメトリクスを監視する</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
       <c r="E95" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5110,7 +5114,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I95" s="16" t="n"/>
@@ -5118,7 +5122,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5134,18 +5138,18 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Windowsコンテナのパッチレベルをホストパッチレベルと同期させる</t>
+          <t>Container Insights (または Telegraf/ElasticSearch などの他のツール) を使用してクラスター ログを保存および分析します。</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
       <c r="E96" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5156,7 +5160,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I96" s="16" t="n"/>
@@ -5164,7 +5168,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5414,22 +5418,18 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>コンプライアンス</t>
+          <t>リソース</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>マスター ログ (API ログ) を Azure Monitor または任意のログ管理ソリューションに送信する</t>
-        </is>
-      </c>
-      <c r="D102" s="22" t="inlineStr">
-        <is>
-          <t>クラスター レベルでの診断設定経由</t>
-        </is>
-      </c>
+          <t>ポッド仕様で要求と制限を構成する</t>
+        </is>
+      </c>
+      <c r="D102" s="22" t="n"/>
       <c r="E102" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5440,7 +5440,7 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/monitor-aks</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I102" s="16" t="n"/>
@@ -5448,7 +5448,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5464,12 +5464,12 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>拡張性</t>
+          <t>リソース</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>クラスター オートスケーラーを使用する</t>
+          <t>名前空間のリソース クォータを適用する</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5486,7 +5486,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I103" s="16" t="n"/>
@@ -5494,7 +5494,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5510,18 +5510,18 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>拡張性</t>
+          <t>リソース</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>AKS ノード プールのノード構成をカスタマイズする</t>
+          <t>サブスクリプションにノードプールをスケールアウトするのに十分なクォータがあることを確認する</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
       <c r="E104" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5532,7 +5532,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I104" s="16" t="n"/>
@@ -5540,7 +5540,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>必要に応じてポッド水平オートスケーラーを使用する</t>
+          <t>クラスター オートスケーラーを使用する</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5586,7 +5586,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5607,17 +5607,13 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>大きすぎたり小さすぎたりしない適切なノードサイズを検討する</t>
-        </is>
-      </c>
-      <c r="D106" s="22" t="inlineStr">
-        <is>
-          <t>ノードが大きいほど、エフェメラルディスクや高速ネットワークなどのパフォーマンスと機能が向上しますが、爆発半径が大きくなり、スケーリングの粒度が低下します。</t>
-        </is>
-      </c>
+          <t>AKS ノード プールのノード構成をカスタマイズする</t>
+        </is>
+      </c>
+      <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5628,7 +5624,7 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
+          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
         </is>
       </c>
       <c r="I106" s="16" t="n"/>
@@ -5636,7 +5632,7 @@
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5657,17 +5653,13 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>スケーラビリティが必要な場合は、5000 を超えるノードを追加することを検討してください</t>
-        </is>
-      </c>
-      <c r="D107" s="22" t="inlineStr">
-        <is>
-          <t>ノードが大きいほど、エフェメラルディスクや高速ネットワークなどのパフォーマンスと機能が向上しますが、爆発半径が大きくなり、スケーリングの粒度が低下します。</t>
-        </is>
-      </c>
+          <t>必要に応じてポッド水平オートスケーラーを使用する</t>
+        </is>
+      </c>
+      <c r="D107" s="22" t="n"/>
       <c r="E107" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5678,7 +5670,7 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
+          <t>https://docs.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I107" s="16" t="n"/>
@@ -5686,7 +5678,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5707,7 +5699,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>AKS オートメーションのためにイベント グリッド イベントをサブスクライブすることを検討する</t>
+          <t>大きすぎたり小さすぎたりしない適切なノードサイズを検討する</t>
         </is>
       </c>
       <c r="D108" s="22" t="inlineStr">
@@ -5717,7 +5709,7 @@
       </c>
       <c r="E108" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5728,7 +5720,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
+          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
         </is>
       </c>
       <c r="I108" s="16" t="n"/>
@@ -5757,14 +5749,10 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>AKS クラスターで長時間実行される操作の場合は、イベントの終了を検討する</t>
-        </is>
-      </c>
-      <c r="D109" s="22" t="inlineStr">
-        <is>
-          <t>ノードが大きいほど、エフェメラルディスクや高速ネットワークなどのパフォーマンスと機能が向上しますが、爆発半径が大きくなり、スケーリングの粒度が低下します。</t>
-        </is>
-      </c>
+          <t>スケーラビリティが必要な場合は、5000 を超えるノードを追加することを検討してください</t>
+        </is>
+      </c>
+      <c r="D109" s="22" t="n"/>
       <c r="E109" s="22" t="inlineStr">
         <is>
           <t>低い</t>
@@ -5778,7 +5766,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
+          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
         </is>
       </c>
       <c r="I109" s="16" t="n"/>
@@ -5807,14 +5795,10 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、AKS ノードに Azure 専用ホストの使用を検討する</t>
-        </is>
-      </c>
-      <c r="D110" s="22" t="inlineStr">
-        <is>
-          <t>ノードが大きいほど、エフェメラルディスクや高速ネットワークなどのパフォーマンスと機能が向上しますが、爆発半径が大きくなり、スケーリングの粒度が低下します。</t>
-        </is>
-      </c>
+          <t>AKS オートメーションのためにイベント グリッド イベントをサブスクライブすることを検討する</t>
+        </is>
+      </c>
+      <c r="D110" s="22" t="n"/>
       <c r="E110" s="22" t="inlineStr">
         <is>
           <t>低い</t>
@@ -5828,7 +5812,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
+          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -5852,18 +5836,18 @@
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>リソース</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>ポッド仕様で要求と制限を構成する</t>
+          <t>AKS クラスターで長時間実行される操作の場合は、イベントの終了を検討する</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
       <c r="E111" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5874,14 +5858,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5897,18 +5881,18 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>リソース</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>名前空間のリソース クォータを適用する</t>
+          <t>必要に応じて、AKS ノードに Azure 専用ホストの使用を検討する</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
       <c r="E112" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5919,7 +5903,7 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
         </is>
       </c>
       <c r="I112" s="16" t="n"/>
@@ -5927,7 +5911,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -5943,12 +5927,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>リソース</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプションにノードプールをスケールアウトするのに十分なクォータがあることを確認する</t>
+          <t>エフェメラル OS ディスクを使用する</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -5965,7 +5949,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I113" s="16" t="n"/>
@@ -5973,7 +5957,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -5984,23 +5968,23 @@
     <row r="114" ht="16.5" customHeight="1" s="13">
       <c r="A114" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションの展開</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>コードとしてのインフラストラクチャ</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>ARM/TF による自動化を使用して Azure リソースを作成する</t>
+          <t>非エフェメラル ディスクの場合、複数のポッドを実行するために高いパフォーマンスが必要であり、既定の AKS ログ ローテーションしきい値で巨大なログが生成されるため、多くのポッド/ノードを実行する場合は、ノードに高い IOPS とより大きな OS ディスクを使用します。</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
       <c r="E114" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6011,7 +5995,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/developer/terraform/create-k8s-cluster-with-tf-and-aks</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="I114" s="16" t="n"/>
@@ -6019,7 +6003,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>3acbe04b-be20-49d3-afda-47778424d116</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6030,23 +6014,23 @@
     <row r="115" ht="16.5" customHeight="1" s="13">
       <c r="A115" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションの展開</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>発達</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>カナリアまたはブルー/グリーンのデプロイを使用する</t>
+          <t>ハイパー パフォーマンス ストレージ オプションの場合は、AKS で Ultra ディスクを使用します</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
       <c r="E115" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6057,14 +6041,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/containers/aks/secure-baseline-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
+          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6075,23 +6059,23 @@
     <row r="116" ht="16.5" customHeight="1" s="13">
       <c r="A116" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションの展開</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>発達</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>AKS Windows ワークロードに必要な場合は、ホスト プロセス コンテナーを使用できます。</t>
+          <t>クラスターに状態を保持することは避け、データを外部 (AzStorage、AzSQL、Cosmos など) に格納します。</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
       <c r="E116" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6102,14 +6086,14 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-windows-hpc</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>785c2fa5-5b56-4ad4-a408-fe72734c476b</t>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6120,23 +6104,23 @@
     <row r="117" ht="16.5" customHeight="1" s="13">
       <c r="A117" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションの展開</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>発達</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>イベント駆動型ワークロードを実行している場合は KEDA を使用する</t>
+          <t>AzFiles Standard を使用する場合は、パフォーマンス上の理由から AzFiles Premium や ANF を検討してください。</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
       <c r="E117" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6147,14 +6131,14 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-functions/functions-kubernetes-keda</t>
+          <t>https://docs.microsoft.com/azure/aks/operator-best-practices-storage</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>a280dcf5-90ce-465d-b8e1-3f9ccbd46926</t>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6165,23 +6149,23 @@
     <row r="118" ht="16.5" customHeight="1" s="13">
       <c r="A118" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションの展開</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>発達</t>
+          <t>貯蔵</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Dapr を使用してマイクロサービス開発を容易にする</t>
+          <t>Azure ディスクと AZ を使用する場合は、適切なゾーンにストレージをプロビジョニングするために VolumeBindingMode:WaitForFirstConsumer を使用して LRS ディスクのゾーン内にノードプールを配置するか、複数のゾーンにまたがるノードプールに ZRS ディスクを使用することを検討してください。</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
       <c r="E118" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6192,7 +6176,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://dapr.io/</t>
+          <t>https://docs.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6200,7 +6184,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>26886d20-b66c-457b-a591-19bf8e8f5c58</t>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -11259,7 +11243,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11343,7 +11327,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11400,43 +11384,43 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F119" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/aks_checklist.ja.xlsx
+++ b/spreadsheet/aks_checklist.ja.xlsx
@@ -5774,7 +5774,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5820,7 +5820,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5865,7 +5865,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -5911,7 +5911,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
